--- a/dev/example.xlsx
+++ b/dev/example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00ACA3D-99B3-1644-AF94-74181292C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="36520" yWindow="4880" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -22,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="41">
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>Scenario</t>
   </si>
   <si>
     <t>Region</t>
@@ -120,9 +118,6 @@
     <t>Mt/year</t>
   </si>
   <si>
-    <t>custom</t>
-  </si>
-  <si>
     <t>SSP2-Base</t>
   </si>
   <si>
@@ -143,11 +138,17 @@
   <si>
     <t>Efficiency|Baking|Bread|Delayed Salt Method</t>
   </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -947,34 +948,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1">
         <v>2005</v>
@@ -1022,207 +1023,207 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>0.33</v>
+      </c>
+      <c r="G2">
+        <v>0.34</v>
+      </c>
+      <c r="H2">
+        <v>0.35</v>
+      </c>
+      <c r="I2">
+        <v>0.35</v>
+      </c>
+      <c r="J2">
+        <v>0.36</v>
+      </c>
+      <c r="K2">
+        <v>0.36</v>
+      </c>
+      <c r="L2">
+        <v>0.37</v>
+      </c>
+      <c r="M2">
+        <v>0.37</v>
+      </c>
+      <c r="N2">
+        <v>0.37</v>
+      </c>
+      <c r="O2">
+        <v>0.37</v>
+      </c>
+      <c r="P2">
+        <v>0.38</v>
+      </c>
+      <c r="Q2">
+        <v>0.38</v>
+      </c>
+      <c r="R2">
+        <v>0.38</v>
+      </c>
+      <c r="S2">
+        <v>0.38</v>
+      </c>
+      <c r="T2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>0.33</v>
-      </c>
-      <c r="G2">
-        <v>0.34</v>
-      </c>
-      <c r="H2">
-        <v>0.35</v>
-      </c>
-      <c r="I2">
-        <v>0.35</v>
-      </c>
-      <c r="J2">
-        <v>0.36</v>
-      </c>
-      <c r="K2">
-        <v>0.36</v>
-      </c>
-      <c r="L2">
-        <v>0.37</v>
-      </c>
-      <c r="M2">
-        <v>0.37</v>
-      </c>
-      <c r="N2">
-        <v>0.37</v>
-      </c>
-      <c r="O2">
-        <v>0.37</v>
-      </c>
-      <c r="P2">
-        <v>0.38</v>
-      </c>
-      <c r="Q2">
-        <v>0.38</v>
-      </c>
-      <c r="R2">
-        <v>0.38</v>
-      </c>
-      <c r="S2">
-        <v>0.38</v>
-      </c>
-      <c r="T2">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0.34</v>
+      </c>
+      <c r="G3">
+        <v>0.35</v>
+      </c>
+      <c r="H3">
+        <v>0.36</v>
+      </c>
+      <c r="I3">
+        <v>0.36</v>
+      </c>
+      <c r="J3">
+        <v>0.37</v>
+      </c>
+      <c r="K3">
+        <v>0.37</v>
+      </c>
+      <c r="L3">
+        <v>0.38</v>
+      </c>
+      <c r="M3">
+        <v>0.38</v>
+      </c>
+      <c r="N3">
+        <v>0.38</v>
+      </c>
+      <c r="O3">
+        <v>0.38</v>
+      </c>
+      <c r="P3">
+        <v>0.39</v>
+      </c>
+      <c r="Q3">
+        <v>0.39</v>
+      </c>
+      <c r="R3">
+        <v>0.39</v>
+      </c>
+      <c r="S3">
+        <v>0.39</v>
+      </c>
+      <c r="T3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>0.34</v>
-      </c>
-      <c r="G3">
-        <v>0.35</v>
-      </c>
-      <c r="H3">
-        <v>0.36</v>
-      </c>
-      <c r="I3">
-        <v>0.36</v>
-      </c>
-      <c r="J3">
-        <v>0.37</v>
-      </c>
-      <c r="K3">
-        <v>0.37</v>
-      </c>
-      <c r="L3">
-        <v>0.38</v>
-      </c>
-      <c r="M3">
-        <v>0.38</v>
-      </c>
-      <c r="N3">
-        <v>0.38</v>
-      </c>
-      <c r="O3">
-        <v>0.38</v>
-      </c>
-      <c r="P3">
-        <v>0.39</v>
-      </c>
-      <c r="Q3">
-        <v>0.39</v>
-      </c>
-      <c r="R3">
-        <v>0.39</v>
-      </c>
-      <c r="S3">
-        <v>0.39</v>
-      </c>
-      <c r="T3">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.34</v>
+      </c>
+      <c r="G4">
+        <v>0.35</v>
+      </c>
+      <c r="H4">
+        <v>0.36</v>
+      </c>
+      <c r="I4">
+        <v>0.36</v>
+      </c>
+      <c r="J4">
+        <v>0.37</v>
+      </c>
+      <c r="K4">
+        <v>0.37</v>
+      </c>
+      <c r="L4">
+        <v>0.38</v>
+      </c>
+      <c r="M4">
+        <v>0.38</v>
+      </c>
+      <c r="N4">
+        <v>0.38</v>
+      </c>
+      <c r="O4">
+        <v>0.38</v>
+      </c>
+      <c r="P4">
+        <v>0.39</v>
+      </c>
+      <c r="Q4">
+        <v>0.39</v>
+      </c>
+      <c r="R4">
+        <v>0.39</v>
+      </c>
+      <c r="S4">
+        <v>0.39</v>
+      </c>
+      <c r="T4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>0.34</v>
-      </c>
-      <c r="G4">
-        <v>0.35</v>
-      </c>
-      <c r="H4">
-        <v>0.36</v>
-      </c>
-      <c r="I4">
-        <v>0.36</v>
-      </c>
-      <c r="J4">
-        <v>0.37</v>
-      </c>
-      <c r="K4">
-        <v>0.37</v>
-      </c>
-      <c r="L4">
-        <v>0.38</v>
-      </c>
-      <c r="M4">
-        <v>0.38</v>
-      </c>
-      <c r="N4">
-        <v>0.38</v>
-      </c>
-      <c r="O4">
-        <v>0.38</v>
-      </c>
-      <c r="P4">
-        <v>0.39</v>
-      </c>
-      <c r="Q4">
-        <v>0.39</v>
-      </c>
-      <c r="R4">
-        <v>0.39</v>
-      </c>
-      <c r="S4">
-        <v>0.39</v>
-      </c>
-      <c r="T4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.32</v>
@@ -1270,83 +1271,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.33</v>
+      </c>
+      <c r="G6">
+        <v>0.34</v>
+      </c>
+      <c r="H6">
+        <v>0.35</v>
+      </c>
+      <c r="I6">
+        <v>0.35</v>
+      </c>
+      <c r="J6">
+        <v>0.36</v>
+      </c>
+      <c r="K6">
+        <v>0.36</v>
+      </c>
+      <c r="L6">
+        <v>0.37</v>
+      </c>
+      <c r="M6">
+        <v>0.37</v>
+      </c>
+      <c r="N6">
+        <v>0.37</v>
+      </c>
+      <c r="O6">
+        <v>0.37</v>
+      </c>
+      <c r="P6">
+        <v>0.38</v>
+      </c>
+      <c r="Q6">
+        <v>0.38</v>
+      </c>
+      <c r="R6">
+        <v>0.38</v>
+      </c>
+      <c r="S6">
+        <v>0.38</v>
+      </c>
+      <c r="T6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0.33</v>
-      </c>
-      <c r="G6">
-        <v>0.34</v>
-      </c>
-      <c r="H6">
-        <v>0.35</v>
-      </c>
-      <c r="I6">
-        <v>0.35</v>
-      </c>
-      <c r="J6">
-        <v>0.36</v>
-      </c>
-      <c r="K6">
-        <v>0.36</v>
-      </c>
-      <c r="L6">
-        <v>0.37</v>
-      </c>
-      <c r="M6">
-        <v>0.37</v>
-      </c>
-      <c r="N6">
-        <v>0.37</v>
-      </c>
-      <c r="O6">
-        <v>0.37</v>
-      </c>
-      <c r="P6">
-        <v>0.38</v>
-      </c>
-      <c r="Q6">
-        <v>0.38</v>
-      </c>
-      <c r="R6">
-        <v>0.38</v>
-      </c>
-      <c r="S6">
-        <v>0.38</v>
-      </c>
-      <c r="T6">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0.31</v>
@@ -1394,21 +1395,21 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0.32</v>
@@ -1456,145 +1457,145 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.34</v>
+      </c>
+      <c r="G9">
+        <v>0.35</v>
+      </c>
+      <c r="H9">
+        <v>0.36</v>
+      </c>
+      <c r="I9">
+        <v>0.36</v>
+      </c>
+      <c r="J9">
+        <v>0.37</v>
+      </c>
+      <c r="K9">
+        <v>0.37</v>
+      </c>
+      <c r="L9">
+        <v>0.38</v>
+      </c>
+      <c r="M9">
+        <v>0.38</v>
+      </c>
+      <c r="N9">
+        <v>0.38</v>
+      </c>
+      <c r="O9">
+        <v>0.38</v>
+      </c>
+      <c r="P9">
+        <v>0.39</v>
+      </c>
+      <c r="Q9">
+        <v>0.39</v>
+      </c>
+      <c r="R9">
+        <v>0.39</v>
+      </c>
+      <c r="S9">
+        <v>0.39</v>
+      </c>
+      <c r="T9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>0.34</v>
-      </c>
-      <c r="G9">
-        <v>0.35</v>
-      </c>
-      <c r="H9">
-        <v>0.36</v>
-      </c>
-      <c r="I9">
-        <v>0.36</v>
-      </c>
-      <c r="J9">
-        <v>0.37</v>
-      </c>
-      <c r="K9">
-        <v>0.37</v>
-      </c>
-      <c r="L9">
-        <v>0.38</v>
-      </c>
-      <c r="M9">
-        <v>0.38</v>
-      </c>
-      <c r="N9">
-        <v>0.38</v>
-      </c>
-      <c r="O9">
-        <v>0.38</v>
-      </c>
-      <c r="P9">
-        <v>0.39</v>
-      </c>
-      <c r="Q9">
-        <v>0.39</v>
-      </c>
-      <c r="R9">
-        <v>0.39</v>
-      </c>
-      <c r="S9">
-        <v>0.39</v>
-      </c>
-      <c r="T9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0.34</v>
+      </c>
+      <c r="G10">
+        <v>0.35</v>
+      </c>
+      <c r="H10">
+        <v>0.36</v>
+      </c>
+      <c r="I10">
+        <v>0.36</v>
+      </c>
+      <c r="J10">
+        <v>0.37</v>
+      </c>
+      <c r="K10">
+        <v>0.37</v>
+      </c>
+      <c r="L10">
+        <v>0.38</v>
+      </c>
+      <c r="M10">
+        <v>0.38</v>
+      </c>
+      <c r="N10">
+        <v>0.38</v>
+      </c>
+      <c r="O10">
+        <v>0.38</v>
+      </c>
+      <c r="P10">
+        <v>0.39</v>
+      </c>
+      <c r="Q10">
+        <v>0.39</v>
+      </c>
+      <c r="R10">
+        <v>0.39</v>
+      </c>
+      <c r="S10">
+        <v>0.39</v>
+      </c>
+      <c r="T10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>0.34</v>
-      </c>
-      <c r="G10">
-        <v>0.35</v>
-      </c>
-      <c r="H10">
-        <v>0.36</v>
-      </c>
-      <c r="I10">
-        <v>0.36</v>
-      </c>
-      <c r="J10">
-        <v>0.37</v>
-      </c>
-      <c r="K10">
-        <v>0.37</v>
-      </c>
-      <c r="L10">
-        <v>0.38</v>
-      </c>
-      <c r="M10">
-        <v>0.38</v>
-      </c>
-      <c r="N10">
-        <v>0.38</v>
-      </c>
-      <c r="O10">
-        <v>0.38</v>
-      </c>
-      <c r="P10">
-        <v>0.39</v>
-      </c>
-      <c r="Q10">
-        <v>0.39</v>
-      </c>
-      <c r="R10">
-        <v>0.39</v>
-      </c>
-      <c r="S10">
-        <v>0.39</v>
-      </c>
-      <c r="T10">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0.32</v>
@@ -1642,393 +1643,393 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.33</v>
+      </c>
+      <c r="G12">
+        <v>0.34</v>
+      </c>
+      <c r="H12">
+        <v>0.35</v>
+      </c>
+      <c r="I12">
+        <v>0.35</v>
+      </c>
+      <c r="J12">
+        <v>0.36</v>
+      </c>
+      <c r="K12">
+        <v>0.36</v>
+      </c>
+      <c r="L12">
+        <v>0.37</v>
+      </c>
+      <c r="M12">
+        <v>0.37</v>
+      </c>
+      <c r="N12">
+        <v>0.37</v>
+      </c>
+      <c r="O12">
+        <v>0.37</v>
+      </c>
+      <c r="P12">
+        <v>0.38</v>
+      </c>
+      <c r="Q12">
+        <v>0.38</v>
+      </c>
+      <c r="R12">
+        <v>0.38</v>
+      </c>
+      <c r="S12">
+        <v>0.38</v>
+      </c>
+      <c r="T12">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>0.33</v>
-      </c>
-      <c r="G12">
-        <v>0.34</v>
-      </c>
-      <c r="H12">
-        <v>0.35</v>
-      </c>
-      <c r="I12">
-        <v>0.35</v>
-      </c>
-      <c r="J12">
-        <v>0.36</v>
-      </c>
-      <c r="K12">
-        <v>0.36</v>
-      </c>
-      <c r="L12">
-        <v>0.37</v>
-      </c>
-      <c r="M12">
-        <v>0.37</v>
-      </c>
-      <c r="N12">
-        <v>0.37</v>
-      </c>
-      <c r="O12">
-        <v>0.37</v>
-      </c>
-      <c r="P12">
-        <v>0.38</v>
-      </c>
-      <c r="Q12">
-        <v>0.38</v>
-      </c>
-      <c r="R12">
-        <v>0.38</v>
-      </c>
-      <c r="S12">
-        <v>0.38</v>
-      </c>
-      <c r="T12">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0.33</v>
+      </c>
+      <c r="G13">
+        <v>0.34</v>
+      </c>
+      <c r="H13">
+        <v>0.35</v>
+      </c>
+      <c r="I13">
+        <v>0.35</v>
+      </c>
+      <c r="J13">
+        <v>0.36</v>
+      </c>
+      <c r="K13">
+        <v>0.36</v>
+      </c>
+      <c r="L13">
+        <v>0.37</v>
+      </c>
+      <c r="M13">
+        <v>0.37</v>
+      </c>
+      <c r="N13">
+        <v>0.37</v>
+      </c>
+      <c r="O13">
+        <v>0.37</v>
+      </c>
+      <c r="P13">
+        <v>0.38</v>
+      </c>
+      <c r="Q13">
+        <v>0.38</v>
+      </c>
+      <c r="R13">
+        <v>0.38</v>
+      </c>
+      <c r="S13">
+        <v>0.38</v>
+      </c>
+      <c r="T13">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>0.33</v>
-      </c>
-      <c r="G13">
-        <v>0.34</v>
-      </c>
-      <c r="H13">
-        <v>0.35</v>
-      </c>
-      <c r="I13">
-        <v>0.35</v>
-      </c>
-      <c r="J13">
-        <v>0.36</v>
-      </c>
-      <c r="K13">
-        <v>0.36</v>
-      </c>
-      <c r="L13">
-        <v>0.37</v>
-      </c>
-      <c r="M13">
-        <v>0.37</v>
-      </c>
-      <c r="N13">
-        <v>0.37</v>
-      </c>
-      <c r="O13">
-        <v>0.37</v>
-      </c>
-      <c r="P13">
-        <v>0.38</v>
-      </c>
-      <c r="Q13">
-        <v>0.38</v>
-      </c>
-      <c r="R13">
-        <v>0.38</v>
-      </c>
-      <c r="S13">
-        <v>0.38</v>
-      </c>
-      <c r="T13">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0.34</v>
+      </c>
+      <c r="G14">
+        <v>0.35</v>
+      </c>
+      <c r="H14">
+        <v>0.36</v>
+      </c>
+      <c r="I14">
+        <v>0.36</v>
+      </c>
+      <c r="J14">
+        <v>0.37</v>
+      </c>
+      <c r="K14">
+        <v>0.37</v>
+      </c>
+      <c r="L14">
+        <v>0.38</v>
+      </c>
+      <c r="M14">
+        <v>0.38</v>
+      </c>
+      <c r="N14">
+        <v>0.38</v>
+      </c>
+      <c r="O14">
+        <v>0.38</v>
+      </c>
+      <c r="P14">
+        <v>0.39</v>
+      </c>
+      <c r="Q14">
+        <v>0.39</v>
+      </c>
+      <c r="R14">
+        <v>0.39</v>
+      </c>
+      <c r="S14">
+        <v>0.39</v>
+      </c>
+      <c r="T14">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>0.34</v>
-      </c>
-      <c r="G14">
-        <v>0.35</v>
-      </c>
-      <c r="H14">
-        <v>0.36</v>
-      </c>
-      <c r="I14">
-        <v>0.36</v>
-      </c>
-      <c r="J14">
-        <v>0.37</v>
-      </c>
-      <c r="K14">
-        <v>0.37</v>
-      </c>
-      <c r="L14">
-        <v>0.38</v>
-      </c>
-      <c r="M14">
-        <v>0.38</v>
-      </c>
-      <c r="N14">
-        <v>0.38</v>
-      </c>
-      <c r="O14">
-        <v>0.38</v>
-      </c>
-      <c r="P14">
-        <v>0.39</v>
-      </c>
-      <c r="Q14">
-        <v>0.39</v>
-      </c>
-      <c r="R14">
-        <v>0.39</v>
-      </c>
-      <c r="S14">
-        <v>0.39</v>
-      </c>
-      <c r="T14">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0.33</v>
+      </c>
+      <c r="G15">
+        <v>0.34</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
+        <v>0.35</v>
+      </c>
+      <c r="J15">
+        <v>0.36</v>
+      </c>
+      <c r="K15">
+        <v>0.36</v>
+      </c>
+      <c r="L15">
+        <v>0.37</v>
+      </c>
+      <c r="M15">
+        <v>0.37</v>
+      </c>
+      <c r="N15">
+        <v>0.37</v>
+      </c>
+      <c r="O15">
+        <v>0.37</v>
+      </c>
+      <c r="P15">
+        <v>0.38</v>
+      </c>
+      <c r="Q15">
+        <v>0.38</v>
+      </c>
+      <c r="R15">
+        <v>0.38</v>
+      </c>
+      <c r="S15">
+        <v>0.38</v>
+      </c>
+      <c r="T15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>0.33</v>
-      </c>
-      <c r="G15">
-        <v>0.34</v>
-      </c>
-      <c r="H15">
-        <v>0.35</v>
-      </c>
-      <c r="I15">
-        <v>0.35</v>
-      </c>
-      <c r="J15">
-        <v>0.36</v>
-      </c>
-      <c r="K15">
-        <v>0.36</v>
-      </c>
-      <c r="L15">
-        <v>0.37</v>
-      </c>
-      <c r="M15">
-        <v>0.37</v>
-      </c>
-      <c r="N15">
-        <v>0.37</v>
-      </c>
-      <c r="O15">
-        <v>0.37</v>
-      </c>
-      <c r="P15">
-        <v>0.38</v>
-      </c>
-      <c r="Q15">
-        <v>0.38</v>
-      </c>
-      <c r="R15">
-        <v>0.38</v>
-      </c>
-      <c r="S15">
-        <v>0.38</v>
-      </c>
-      <c r="T15">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0.33</v>
+      </c>
+      <c r="G16">
+        <v>0.34</v>
+      </c>
+      <c r="H16">
+        <v>0.35</v>
+      </c>
+      <c r="I16">
+        <v>0.35</v>
+      </c>
+      <c r="J16">
+        <v>0.36</v>
+      </c>
+      <c r="K16">
+        <v>0.36</v>
+      </c>
+      <c r="L16">
+        <v>0.37</v>
+      </c>
+      <c r="M16">
+        <v>0.37</v>
+      </c>
+      <c r="N16">
+        <v>0.37</v>
+      </c>
+      <c r="O16">
+        <v>0.37</v>
+      </c>
+      <c r="P16">
+        <v>0.38</v>
+      </c>
+      <c r="Q16">
+        <v>0.38</v>
+      </c>
+      <c r="R16">
+        <v>0.38</v>
+      </c>
+      <c r="S16">
+        <v>0.38</v>
+      </c>
+      <c r="T16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>0.33</v>
-      </c>
-      <c r="G16">
-        <v>0.34</v>
-      </c>
-      <c r="H16">
-        <v>0.35</v>
-      </c>
-      <c r="I16">
-        <v>0.35</v>
-      </c>
-      <c r="J16">
-        <v>0.36</v>
-      </c>
-      <c r="K16">
-        <v>0.36</v>
-      </c>
-      <c r="L16">
-        <v>0.37</v>
-      </c>
-      <c r="M16">
-        <v>0.37</v>
-      </c>
-      <c r="N16">
-        <v>0.37</v>
-      </c>
-      <c r="O16">
-        <v>0.37</v>
-      </c>
-      <c r="P16">
-        <v>0.38</v>
-      </c>
-      <c r="Q16">
-        <v>0.38</v>
-      </c>
-      <c r="R16">
-        <v>0.38</v>
-      </c>
-      <c r="S16">
-        <v>0.38</v>
-      </c>
-      <c r="T16">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.33</v>
+      </c>
+      <c r="G17">
+        <v>0.34</v>
+      </c>
+      <c r="H17">
+        <v>0.35</v>
+      </c>
+      <c r="I17">
+        <v>0.35</v>
+      </c>
+      <c r="J17">
+        <v>0.36</v>
+      </c>
+      <c r="K17">
+        <v>0.36</v>
+      </c>
+      <c r="L17">
+        <v>0.37</v>
+      </c>
+      <c r="M17">
+        <v>0.37</v>
+      </c>
+      <c r="N17">
+        <v>0.37</v>
+      </c>
+      <c r="O17">
+        <v>0.37</v>
+      </c>
+      <c r="P17">
+        <v>0.38</v>
+      </c>
+      <c r="Q17">
+        <v>0.38</v>
+      </c>
+      <c r="R17">
+        <v>0.38</v>
+      </c>
+      <c r="S17">
+        <v>0.38</v>
+      </c>
+      <c r="T17">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>0.33</v>
-      </c>
-      <c r="G17">
-        <v>0.34</v>
-      </c>
-      <c r="H17">
-        <v>0.35</v>
-      </c>
-      <c r="I17">
-        <v>0.35</v>
-      </c>
-      <c r="J17">
-        <v>0.36</v>
-      </c>
-      <c r="K17">
-        <v>0.36</v>
-      </c>
-      <c r="L17">
-        <v>0.37</v>
-      </c>
-      <c r="M17">
-        <v>0.37</v>
-      </c>
-      <c r="N17">
-        <v>0.37</v>
-      </c>
-      <c r="O17">
-        <v>0.37</v>
-      </c>
-      <c r="P17">
-        <v>0.38</v>
-      </c>
-      <c r="Q17">
-        <v>0.38</v>
-      </c>
-      <c r="R17">
-        <v>0.38</v>
-      </c>
-      <c r="S17">
-        <v>0.38</v>
-      </c>
-      <c r="T17">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>0.32</v>
@@ -2076,21 +2077,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>0.32</v>
@@ -2138,83 +2139,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0.33</v>
+      </c>
+      <c r="G20">
+        <v>0.34</v>
+      </c>
+      <c r="H20">
+        <v>0.35</v>
+      </c>
+      <c r="I20">
+        <v>0.35</v>
+      </c>
+      <c r="J20">
+        <v>0.36</v>
+      </c>
+      <c r="K20">
+        <v>0.36</v>
+      </c>
+      <c r="L20">
+        <v>0.37</v>
+      </c>
+      <c r="M20">
+        <v>0.37</v>
+      </c>
+      <c r="N20">
+        <v>0.37</v>
+      </c>
+      <c r="O20">
+        <v>0.37</v>
+      </c>
+      <c r="P20">
+        <v>0.38</v>
+      </c>
+      <c r="Q20">
+        <v>0.38</v>
+      </c>
+      <c r="R20">
+        <v>0.38</v>
+      </c>
+      <c r="S20">
+        <v>0.38</v>
+      </c>
+      <c r="T20">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>0.33</v>
-      </c>
-      <c r="G20">
-        <v>0.34</v>
-      </c>
-      <c r="H20">
-        <v>0.35</v>
-      </c>
-      <c r="I20">
-        <v>0.35</v>
-      </c>
-      <c r="J20">
-        <v>0.36</v>
-      </c>
-      <c r="K20">
-        <v>0.36</v>
-      </c>
-      <c r="L20">
-        <v>0.37</v>
-      </c>
-      <c r="M20">
-        <v>0.37</v>
-      </c>
-      <c r="N20">
-        <v>0.37</v>
-      </c>
-      <c r="O20">
-        <v>0.37</v>
-      </c>
-      <c r="P20">
-        <v>0.38</v>
-      </c>
-      <c r="Q20">
-        <v>0.38</v>
-      </c>
-      <c r="R20">
-        <v>0.38</v>
-      </c>
-      <c r="S20">
-        <v>0.38</v>
-      </c>
-      <c r="T20">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>0.32</v>
@@ -2262,21 +2263,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0.32</v>
@@ -2324,21 +2325,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0.32</v>
@@ -2386,21 +2387,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0.32</v>
@@ -2448,393 +2449,393 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>0.34</v>
+      </c>
+      <c r="G25">
+        <v>0.35</v>
+      </c>
+      <c r="H25">
+        <v>0.36</v>
+      </c>
+      <c r="I25">
+        <v>0.36</v>
+      </c>
+      <c r="J25">
+        <v>0.37</v>
+      </c>
+      <c r="K25">
+        <v>0.37</v>
+      </c>
+      <c r="L25">
+        <v>0.38</v>
+      </c>
+      <c r="M25">
+        <v>0.38</v>
+      </c>
+      <c r="N25">
+        <v>0.38</v>
+      </c>
+      <c r="O25">
+        <v>0.38</v>
+      </c>
+      <c r="P25">
+        <v>0.39</v>
+      </c>
+      <c r="Q25">
+        <v>0.39</v>
+      </c>
+      <c r="R25">
+        <v>0.39</v>
+      </c>
+      <c r="S25">
+        <v>0.39</v>
+      </c>
+      <c r="T25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>0.33</v>
+      </c>
+      <c r="G26">
+        <v>0.34</v>
+      </c>
+      <c r="H26">
+        <v>0.35</v>
+      </c>
+      <c r="I26">
+        <v>0.35</v>
+      </c>
+      <c r="J26">
+        <v>0.36</v>
+      </c>
+      <c r="K26">
+        <v>0.36</v>
+      </c>
+      <c r="L26">
+        <v>0.37</v>
+      </c>
+      <c r="M26">
+        <v>0.37</v>
+      </c>
+      <c r="N26">
+        <v>0.37</v>
+      </c>
+      <c r="O26">
+        <v>0.37</v>
+      </c>
+      <c r="P26">
+        <v>0.38</v>
+      </c>
+      <c r="Q26">
+        <v>0.38</v>
+      </c>
+      <c r="R26">
+        <v>0.38</v>
+      </c>
+      <c r="S26">
+        <v>0.38</v>
+      </c>
+      <c r="T26">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>0.34</v>
+      </c>
+      <c r="G27">
+        <v>0.35</v>
+      </c>
+      <c r="H27">
+        <v>0.36</v>
+      </c>
+      <c r="I27">
+        <v>0.36</v>
+      </c>
+      <c r="J27">
+        <v>0.37</v>
+      </c>
+      <c r="K27">
+        <v>0.37</v>
+      </c>
+      <c r="L27">
+        <v>0.38</v>
+      </c>
+      <c r="M27">
+        <v>0.38</v>
+      </c>
+      <c r="N27">
+        <v>0.38</v>
+      </c>
+      <c r="O27">
+        <v>0.38</v>
+      </c>
+      <c r="P27">
+        <v>0.39</v>
+      </c>
+      <c r="Q27">
+        <v>0.39</v>
+      </c>
+      <c r="R27">
+        <v>0.39</v>
+      </c>
+      <c r="S27">
+        <v>0.39</v>
+      </c>
+      <c r="T27">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>0.33</v>
+      </c>
+      <c r="G28">
+        <v>0.34</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <v>0.35</v>
+      </c>
+      <c r="J28">
+        <v>0.36</v>
+      </c>
+      <c r="K28">
+        <v>0.36</v>
+      </c>
+      <c r="L28">
+        <v>0.37</v>
+      </c>
+      <c r="M28">
+        <v>0.37</v>
+      </c>
+      <c r="N28">
+        <v>0.37</v>
+      </c>
+      <c r="O28">
+        <v>0.37</v>
+      </c>
+      <c r="P28">
+        <v>0.38</v>
+      </c>
+      <c r="Q28">
+        <v>0.38</v>
+      </c>
+      <c r="R28">
+        <v>0.38</v>
+      </c>
+      <c r="S28">
+        <v>0.38</v>
+      </c>
+      <c r="T28">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="F25">
-        <v>0.34</v>
-      </c>
-      <c r="G25">
-        <v>0.35</v>
-      </c>
-      <c r="H25">
-        <v>0.36</v>
-      </c>
-      <c r="I25">
-        <v>0.36</v>
-      </c>
-      <c r="J25">
-        <v>0.37</v>
-      </c>
-      <c r="K25">
-        <v>0.37</v>
-      </c>
-      <c r="L25">
-        <v>0.38</v>
-      </c>
-      <c r="M25">
-        <v>0.38</v>
-      </c>
-      <c r="N25">
-        <v>0.38</v>
-      </c>
-      <c r="O25">
-        <v>0.38</v>
-      </c>
-      <c r="P25">
-        <v>0.39</v>
-      </c>
-      <c r="Q25">
-        <v>0.39</v>
-      </c>
-      <c r="R25">
-        <v>0.39</v>
-      </c>
-      <c r="S25">
-        <v>0.39</v>
-      </c>
-      <c r="T25">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>0.33</v>
-      </c>
-      <c r="G26">
-        <v>0.34</v>
-      </c>
-      <c r="H26">
-        <v>0.35</v>
-      </c>
-      <c r="I26">
-        <v>0.35</v>
-      </c>
-      <c r="J26">
-        <v>0.36</v>
-      </c>
-      <c r="K26">
-        <v>0.36</v>
-      </c>
-      <c r="L26">
-        <v>0.37</v>
-      </c>
-      <c r="M26">
-        <v>0.37</v>
-      </c>
-      <c r="N26">
-        <v>0.37</v>
-      </c>
-      <c r="O26">
-        <v>0.37</v>
-      </c>
-      <c r="P26">
-        <v>0.38</v>
-      </c>
-      <c r="Q26">
-        <v>0.38</v>
-      </c>
-      <c r="R26">
-        <v>0.38</v>
-      </c>
-      <c r="S26">
-        <v>0.38</v>
-      </c>
-      <c r="T26">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>0.34</v>
-      </c>
-      <c r="G27">
-        <v>0.35</v>
-      </c>
-      <c r="H27">
-        <v>0.36</v>
-      </c>
-      <c r="I27">
-        <v>0.36</v>
-      </c>
-      <c r="J27">
-        <v>0.37</v>
-      </c>
-      <c r="K27">
-        <v>0.37</v>
-      </c>
-      <c r="L27">
-        <v>0.38</v>
-      </c>
-      <c r="M27">
-        <v>0.38</v>
-      </c>
-      <c r="N27">
-        <v>0.38</v>
-      </c>
-      <c r="O27">
-        <v>0.38</v>
-      </c>
-      <c r="P27">
-        <v>0.39</v>
-      </c>
-      <c r="Q27">
-        <v>0.39</v>
-      </c>
-      <c r="R27">
-        <v>0.39</v>
-      </c>
-      <c r="S27">
-        <v>0.39</v>
-      </c>
-      <c r="T27">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>0.33</v>
-      </c>
-      <c r="G28">
-        <v>0.34</v>
-      </c>
-      <c r="H28">
-        <v>0.35</v>
-      </c>
-      <c r="I28">
-        <v>0.35</v>
-      </c>
-      <c r="J28">
-        <v>0.36</v>
-      </c>
-      <c r="K28">
-        <v>0.36</v>
-      </c>
-      <c r="L28">
-        <v>0.37</v>
-      </c>
-      <c r="M28">
-        <v>0.37</v>
-      </c>
-      <c r="N28">
-        <v>0.37</v>
-      </c>
-      <c r="O28">
-        <v>0.37</v>
-      </c>
-      <c r="P28">
-        <v>0.38</v>
-      </c>
-      <c r="Q28">
-        <v>0.38</v>
-      </c>
-      <c r="R28">
-        <v>0.38</v>
-      </c>
-      <c r="S28">
-        <v>0.38</v>
-      </c>
-      <c r="T28">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F29">
+        <v>0.34</v>
+      </c>
+      <c r="G29">
+        <v>0.35</v>
+      </c>
+      <c r="H29">
+        <v>0.36</v>
+      </c>
+      <c r="I29">
+        <v>0.36</v>
+      </c>
+      <c r="J29">
+        <v>0.37</v>
+      </c>
+      <c r="K29">
+        <v>0.37</v>
+      </c>
+      <c r="L29">
+        <v>0.38</v>
+      </c>
+      <c r="M29">
+        <v>0.38</v>
+      </c>
+      <c r="N29">
+        <v>0.38</v>
+      </c>
+      <c r="O29">
+        <v>0.38</v>
+      </c>
+      <c r="P29">
+        <v>0.39</v>
+      </c>
+      <c r="Q29">
+        <v>0.39</v>
+      </c>
+      <c r="R29">
+        <v>0.39</v>
+      </c>
+      <c r="S29">
+        <v>0.39</v>
+      </c>
+      <c r="T29">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>0.34</v>
-      </c>
-      <c r="G29">
-        <v>0.35</v>
-      </c>
-      <c r="H29">
-        <v>0.36</v>
-      </c>
-      <c r="I29">
-        <v>0.36</v>
-      </c>
-      <c r="J29">
-        <v>0.37</v>
-      </c>
-      <c r="K29">
-        <v>0.37</v>
-      </c>
-      <c r="L29">
-        <v>0.38</v>
-      </c>
-      <c r="M29">
-        <v>0.38</v>
-      </c>
-      <c r="N29">
-        <v>0.38</v>
-      </c>
-      <c r="O29">
-        <v>0.38</v>
-      </c>
-      <c r="P29">
-        <v>0.39</v>
-      </c>
-      <c r="Q29">
-        <v>0.39</v>
-      </c>
-      <c r="R29">
-        <v>0.39</v>
-      </c>
-      <c r="S29">
-        <v>0.39</v>
-      </c>
-      <c r="T29">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0.34</v>
+      </c>
+      <c r="G30">
+        <v>0.35</v>
+      </c>
+      <c r="H30">
+        <v>0.36</v>
+      </c>
+      <c r="I30">
+        <v>0.36</v>
+      </c>
+      <c r="J30">
+        <v>0.37</v>
+      </c>
+      <c r="K30">
+        <v>0.37</v>
+      </c>
+      <c r="L30">
+        <v>0.38</v>
+      </c>
+      <c r="M30">
+        <v>0.38</v>
+      </c>
+      <c r="N30">
+        <v>0.38</v>
+      </c>
+      <c r="O30">
+        <v>0.38</v>
+      </c>
+      <c r="P30">
+        <v>0.39</v>
+      </c>
+      <c r="Q30">
+        <v>0.39</v>
+      </c>
+      <c r="R30">
+        <v>0.39</v>
+      </c>
+      <c r="S30">
+        <v>0.39</v>
+      </c>
+      <c r="T30">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>0.34</v>
-      </c>
-      <c r="G30">
-        <v>0.35</v>
-      </c>
-      <c r="H30">
-        <v>0.36</v>
-      </c>
-      <c r="I30">
-        <v>0.36</v>
-      </c>
-      <c r="J30">
-        <v>0.37</v>
-      </c>
-      <c r="K30">
-        <v>0.37</v>
-      </c>
-      <c r="L30">
-        <v>0.38</v>
-      </c>
-      <c r="M30">
-        <v>0.38</v>
-      </c>
-      <c r="N30">
-        <v>0.38</v>
-      </c>
-      <c r="O30">
-        <v>0.38</v>
-      </c>
-      <c r="P30">
-        <v>0.39</v>
-      </c>
-      <c r="Q30">
-        <v>0.39</v>
-      </c>
-      <c r="R30">
-        <v>0.39</v>
-      </c>
-      <c r="S30">
-        <v>0.39</v>
-      </c>
-      <c r="T30">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>0.32</v>
@@ -2882,83 +2883,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>0.33</v>
+      </c>
+      <c r="G32">
+        <v>0.34</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <v>0.35</v>
+      </c>
+      <c r="J32">
+        <v>0.36</v>
+      </c>
+      <c r="K32">
+        <v>0.36</v>
+      </c>
+      <c r="L32">
+        <v>0.37</v>
+      </c>
+      <c r="M32">
+        <v>0.37</v>
+      </c>
+      <c r="N32">
+        <v>0.37</v>
+      </c>
+      <c r="O32">
+        <v>0.37</v>
+      </c>
+      <c r="P32">
+        <v>0.38</v>
+      </c>
+      <c r="Q32">
+        <v>0.38</v>
+      </c>
+      <c r="R32">
+        <v>0.38</v>
+      </c>
+      <c r="S32">
+        <v>0.38</v>
+      </c>
+      <c r="T32">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>0.33</v>
-      </c>
-      <c r="G32">
-        <v>0.34</v>
-      </c>
-      <c r="H32">
-        <v>0.35</v>
-      </c>
-      <c r="I32">
-        <v>0.35</v>
-      </c>
-      <c r="J32">
-        <v>0.36</v>
-      </c>
-      <c r="K32">
-        <v>0.36</v>
-      </c>
-      <c r="L32">
-        <v>0.37</v>
-      </c>
-      <c r="M32">
-        <v>0.37</v>
-      </c>
-      <c r="N32">
-        <v>0.37</v>
-      </c>
-      <c r="O32">
-        <v>0.37</v>
-      </c>
-      <c r="P32">
-        <v>0.38</v>
-      </c>
-      <c r="Q32">
-        <v>0.38</v>
-      </c>
-      <c r="R32">
-        <v>0.38</v>
-      </c>
-      <c r="S32">
-        <v>0.38</v>
-      </c>
-      <c r="T32">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>0.31</v>
@@ -3006,21 +3007,21 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>0.32</v>
@@ -3068,145 +3069,145 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>0.34</v>
+      </c>
+      <c r="G35">
+        <v>0.35</v>
+      </c>
+      <c r="H35">
+        <v>0.36</v>
+      </c>
+      <c r="I35">
+        <v>0.36</v>
+      </c>
+      <c r="J35">
+        <v>0.37</v>
+      </c>
+      <c r="K35">
+        <v>0.37</v>
+      </c>
+      <c r="L35">
+        <v>0.38</v>
+      </c>
+      <c r="M35">
+        <v>0.38</v>
+      </c>
+      <c r="N35">
+        <v>0.38</v>
+      </c>
+      <c r="O35">
+        <v>0.38</v>
+      </c>
+      <c r="P35">
+        <v>0.39</v>
+      </c>
+      <c r="Q35">
+        <v>0.39</v>
+      </c>
+      <c r="R35">
+        <v>0.39</v>
+      </c>
+      <c r="S35">
+        <v>0.39</v>
+      </c>
+      <c r="T35">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <v>0.34</v>
-      </c>
-      <c r="G35">
-        <v>0.35</v>
-      </c>
-      <c r="H35">
-        <v>0.36</v>
-      </c>
-      <c r="I35">
-        <v>0.36</v>
-      </c>
-      <c r="J35">
-        <v>0.37</v>
-      </c>
-      <c r="K35">
-        <v>0.37</v>
-      </c>
-      <c r="L35">
-        <v>0.38</v>
-      </c>
-      <c r="M35">
-        <v>0.38</v>
-      </c>
-      <c r="N35">
-        <v>0.38</v>
-      </c>
-      <c r="O35">
-        <v>0.38</v>
-      </c>
-      <c r="P35">
-        <v>0.39</v>
-      </c>
-      <c r="Q35">
-        <v>0.39</v>
-      </c>
-      <c r="R35">
-        <v>0.39</v>
-      </c>
-      <c r="S35">
-        <v>0.39</v>
-      </c>
-      <c r="T35">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>0.34</v>
+      </c>
+      <c r="G36">
+        <v>0.35</v>
+      </c>
+      <c r="H36">
+        <v>0.36</v>
+      </c>
+      <c r="I36">
+        <v>0.36</v>
+      </c>
+      <c r="J36">
+        <v>0.37</v>
+      </c>
+      <c r="K36">
+        <v>0.37</v>
+      </c>
+      <c r="L36">
+        <v>0.38</v>
+      </c>
+      <c r="M36">
+        <v>0.38</v>
+      </c>
+      <c r="N36">
+        <v>0.38</v>
+      </c>
+      <c r="O36">
+        <v>0.38</v>
+      </c>
+      <c r="P36">
+        <v>0.39</v>
+      </c>
+      <c r="Q36">
+        <v>0.39</v>
+      </c>
+      <c r="R36">
+        <v>0.39</v>
+      </c>
+      <c r="S36">
+        <v>0.39</v>
+      </c>
+      <c r="T36">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36">
-        <v>0.34</v>
-      </c>
-      <c r="G36">
-        <v>0.35</v>
-      </c>
-      <c r="H36">
-        <v>0.36</v>
-      </c>
-      <c r="I36">
-        <v>0.36</v>
-      </c>
-      <c r="J36">
-        <v>0.37</v>
-      </c>
-      <c r="K36">
-        <v>0.37</v>
-      </c>
-      <c r="L36">
-        <v>0.38</v>
-      </c>
-      <c r="M36">
-        <v>0.38</v>
-      </c>
-      <c r="N36">
-        <v>0.38</v>
-      </c>
-      <c r="O36">
-        <v>0.38</v>
-      </c>
-      <c r="P36">
-        <v>0.39</v>
-      </c>
-      <c r="Q36">
-        <v>0.39</v>
-      </c>
-      <c r="R36">
-        <v>0.39</v>
-      </c>
-      <c r="S36">
-        <v>0.39</v>
-      </c>
-      <c r="T36">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0.32</v>
@@ -3254,393 +3255,393 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0.33</v>
+      </c>
+      <c r="G38">
+        <v>0.34</v>
+      </c>
+      <c r="H38">
+        <v>0.35</v>
+      </c>
+      <c r="I38">
+        <v>0.35</v>
+      </c>
+      <c r="J38">
+        <v>0.36</v>
+      </c>
+      <c r="K38">
+        <v>0.36</v>
+      </c>
+      <c r="L38">
+        <v>0.37</v>
+      </c>
+      <c r="M38">
+        <v>0.37</v>
+      </c>
+      <c r="N38">
+        <v>0.37</v>
+      </c>
+      <c r="O38">
+        <v>0.37</v>
+      </c>
+      <c r="P38">
+        <v>0.38</v>
+      </c>
+      <c r="Q38">
+        <v>0.38</v>
+      </c>
+      <c r="R38">
+        <v>0.38</v>
+      </c>
+      <c r="S38">
+        <v>0.38</v>
+      </c>
+      <c r="T38">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>0.33</v>
-      </c>
-      <c r="G38">
-        <v>0.34</v>
-      </c>
-      <c r="H38">
-        <v>0.35</v>
-      </c>
-      <c r="I38">
-        <v>0.35</v>
-      </c>
-      <c r="J38">
-        <v>0.36</v>
-      </c>
-      <c r="K38">
-        <v>0.36</v>
-      </c>
-      <c r="L38">
-        <v>0.37</v>
-      </c>
-      <c r="M38">
-        <v>0.37</v>
-      </c>
-      <c r="N38">
-        <v>0.37</v>
-      </c>
-      <c r="O38">
-        <v>0.37</v>
-      </c>
-      <c r="P38">
-        <v>0.38</v>
-      </c>
-      <c r="Q38">
-        <v>0.38</v>
-      </c>
-      <c r="R38">
-        <v>0.38</v>
-      </c>
-      <c r="S38">
-        <v>0.38</v>
-      </c>
-      <c r="T38">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>0.33</v>
+      </c>
+      <c r="G39">
+        <v>0.34</v>
+      </c>
+      <c r="H39">
+        <v>0.35</v>
+      </c>
+      <c r="I39">
+        <v>0.35</v>
+      </c>
+      <c r="J39">
+        <v>0.36</v>
+      </c>
+      <c r="K39">
+        <v>0.36</v>
+      </c>
+      <c r="L39">
+        <v>0.37</v>
+      </c>
+      <c r="M39">
+        <v>0.37</v>
+      </c>
+      <c r="N39">
+        <v>0.37</v>
+      </c>
+      <c r="O39">
+        <v>0.37</v>
+      </c>
+      <c r="P39">
+        <v>0.38</v>
+      </c>
+      <c r="Q39">
+        <v>0.38</v>
+      </c>
+      <c r="R39">
+        <v>0.38</v>
+      </c>
+      <c r="S39">
+        <v>0.38</v>
+      </c>
+      <c r="T39">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>0.33</v>
-      </c>
-      <c r="G39">
-        <v>0.34</v>
-      </c>
-      <c r="H39">
-        <v>0.35</v>
-      </c>
-      <c r="I39">
-        <v>0.35</v>
-      </c>
-      <c r="J39">
-        <v>0.36</v>
-      </c>
-      <c r="K39">
-        <v>0.36</v>
-      </c>
-      <c r="L39">
-        <v>0.37</v>
-      </c>
-      <c r="M39">
-        <v>0.37</v>
-      </c>
-      <c r="N39">
-        <v>0.37</v>
-      </c>
-      <c r="O39">
-        <v>0.37</v>
-      </c>
-      <c r="P39">
-        <v>0.38</v>
-      </c>
-      <c r="Q39">
-        <v>0.38</v>
-      </c>
-      <c r="R39">
-        <v>0.38</v>
-      </c>
-      <c r="S39">
-        <v>0.38</v>
-      </c>
-      <c r="T39">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>0.34</v>
+      </c>
+      <c r="G40">
+        <v>0.35</v>
+      </c>
+      <c r="H40">
+        <v>0.36</v>
+      </c>
+      <c r="I40">
+        <v>0.36</v>
+      </c>
+      <c r="J40">
+        <v>0.37</v>
+      </c>
+      <c r="K40">
+        <v>0.37</v>
+      </c>
+      <c r="L40">
+        <v>0.38</v>
+      </c>
+      <c r="M40">
+        <v>0.38</v>
+      </c>
+      <c r="N40">
+        <v>0.38</v>
+      </c>
+      <c r="O40">
+        <v>0.38</v>
+      </c>
+      <c r="P40">
+        <v>0.39</v>
+      </c>
+      <c r="Q40">
+        <v>0.39</v>
+      </c>
+      <c r="R40">
+        <v>0.39</v>
+      </c>
+      <c r="S40">
+        <v>0.39</v>
+      </c>
+      <c r="T40">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>0.34</v>
-      </c>
-      <c r="G40">
-        <v>0.35</v>
-      </c>
-      <c r="H40">
-        <v>0.36</v>
-      </c>
-      <c r="I40">
-        <v>0.36</v>
-      </c>
-      <c r="J40">
-        <v>0.37</v>
-      </c>
-      <c r="K40">
-        <v>0.37</v>
-      </c>
-      <c r="L40">
-        <v>0.38</v>
-      </c>
-      <c r="M40">
-        <v>0.38</v>
-      </c>
-      <c r="N40">
-        <v>0.38</v>
-      </c>
-      <c r="O40">
-        <v>0.38</v>
-      </c>
-      <c r="P40">
-        <v>0.39</v>
-      </c>
-      <c r="Q40">
-        <v>0.39</v>
-      </c>
-      <c r="R40">
-        <v>0.39</v>
-      </c>
-      <c r="S40">
-        <v>0.39</v>
-      </c>
-      <c r="T40">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>0.33</v>
+      </c>
+      <c r="G41">
+        <v>0.34</v>
+      </c>
+      <c r="H41">
+        <v>0.35</v>
+      </c>
+      <c r="I41">
+        <v>0.35</v>
+      </c>
+      <c r="J41">
+        <v>0.36</v>
+      </c>
+      <c r="K41">
+        <v>0.36</v>
+      </c>
+      <c r="L41">
+        <v>0.37</v>
+      </c>
+      <c r="M41">
+        <v>0.37</v>
+      </c>
+      <c r="N41">
+        <v>0.37</v>
+      </c>
+      <c r="O41">
+        <v>0.37</v>
+      </c>
+      <c r="P41">
+        <v>0.38</v>
+      </c>
+      <c r="Q41">
+        <v>0.38</v>
+      </c>
+      <c r="R41">
+        <v>0.38</v>
+      </c>
+      <c r="S41">
+        <v>0.38</v>
+      </c>
+      <c r="T41">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>0.33</v>
-      </c>
-      <c r="G41">
-        <v>0.34</v>
-      </c>
-      <c r="H41">
-        <v>0.35</v>
-      </c>
-      <c r="I41">
-        <v>0.35</v>
-      </c>
-      <c r="J41">
-        <v>0.36</v>
-      </c>
-      <c r="K41">
-        <v>0.36</v>
-      </c>
-      <c r="L41">
-        <v>0.37</v>
-      </c>
-      <c r="M41">
-        <v>0.37</v>
-      </c>
-      <c r="N41">
-        <v>0.37</v>
-      </c>
-      <c r="O41">
-        <v>0.37</v>
-      </c>
-      <c r="P41">
-        <v>0.38</v>
-      </c>
-      <c r="Q41">
-        <v>0.38</v>
-      </c>
-      <c r="R41">
-        <v>0.38</v>
-      </c>
-      <c r="S41">
-        <v>0.38</v>
-      </c>
-      <c r="T41">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>0.33</v>
+      </c>
+      <c r="G42">
+        <v>0.34</v>
+      </c>
+      <c r="H42">
+        <v>0.35</v>
+      </c>
+      <c r="I42">
+        <v>0.35</v>
+      </c>
+      <c r="J42">
+        <v>0.36</v>
+      </c>
+      <c r="K42">
+        <v>0.36</v>
+      </c>
+      <c r="L42">
+        <v>0.37</v>
+      </c>
+      <c r="M42">
+        <v>0.37</v>
+      </c>
+      <c r="N42">
+        <v>0.37</v>
+      </c>
+      <c r="O42">
+        <v>0.37</v>
+      </c>
+      <c r="P42">
+        <v>0.38</v>
+      </c>
+      <c r="Q42">
+        <v>0.38</v>
+      </c>
+      <c r="R42">
+        <v>0.38</v>
+      </c>
+      <c r="S42">
+        <v>0.38</v>
+      </c>
+      <c r="T42">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>0.33</v>
-      </c>
-      <c r="G42">
-        <v>0.34</v>
-      </c>
-      <c r="H42">
-        <v>0.35</v>
-      </c>
-      <c r="I42">
-        <v>0.35</v>
-      </c>
-      <c r="J42">
-        <v>0.36</v>
-      </c>
-      <c r="K42">
-        <v>0.36</v>
-      </c>
-      <c r="L42">
-        <v>0.37</v>
-      </c>
-      <c r="M42">
-        <v>0.37</v>
-      </c>
-      <c r="N42">
-        <v>0.37</v>
-      </c>
-      <c r="O42">
-        <v>0.37</v>
-      </c>
-      <c r="P42">
-        <v>0.38</v>
-      </c>
-      <c r="Q42">
-        <v>0.38</v>
-      </c>
-      <c r="R42">
-        <v>0.38</v>
-      </c>
-      <c r="S42">
-        <v>0.38</v>
-      </c>
-      <c r="T42">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>0.33</v>
+      </c>
+      <c r="G43">
+        <v>0.34</v>
+      </c>
+      <c r="H43">
+        <v>0.35</v>
+      </c>
+      <c r="I43">
+        <v>0.35</v>
+      </c>
+      <c r="J43">
+        <v>0.36</v>
+      </c>
+      <c r="K43">
+        <v>0.36</v>
+      </c>
+      <c r="L43">
+        <v>0.37</v>
+      </c>
+      <c r="M43">
+        <v>0.37</v>
+      </c>
+      <c r="N43">
+        <v>0.37</v>
+      </c>
+      <c r="O43">
+        <v>0.37</v>
+      </c>
+      <c r="P43">
+        <v>0.38</v>
+      </c>
+      <c r="Q43">
+        <v>0.38</v>
+      </c>
+      <c r="R43">
+        <v>0.38</v>
+      </c>
+      <c r="S43">
+        <v>0.38</v>
+      </c>
+      <c r="T43">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>0.33</v>
-      </c>
-      <c r="G43">
-        <v>0.34</v>
-      </c>
-      <c r="H43">
-        <v>0.35</v>
-      </c>
-      <c r="I43">
-        <v>0.35</v>
-      </c>
-      <c r="J43">
-        <v>0.36</v>
-      </c>
-      <c r="K43">
-        <v>0.36</v>
-      </c>
-      <c r="L43">
-        <v>0.37</v>
-      </c>
-      <c r="M43">
-        <v>0.37</v>
-      </c>
-      <c r="N43">
-        <v>0.37</v>
-      </c>
-      <c r="O43">
-        <v>0.37</v>
-      </c>
-      <c r="P43">
-        <v>0.38</v>
-      </c>
-      <c r="Q43">
-        <v>0.38</v>
-      </c>
-      <c r="R43">
-        <v>0.38</v>
-      </c>
-      <c r="S43">
-        <v>0.38</v>
-      </c>
-      <c r="T43">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>0.32</v>
@@ -3688,21 +3689,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>0.32</v>
@@ -3750,83 +3751,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0.33</v>
+      </c>
+      <c r="G46">
+        <v>0.34</v>
+      </c>
+      <c r="H46">
+        <v>0.35</v>
+      </c>
+      <c r="I46">
+        <v>0.35</v>
+      </c>
+      <c r="J46">
+        <v>0.36</v>
+      </c>
+      <c r="K46">
+        <v>0.36</v>
+      </c>
+      <c r="L46">
+        <v>0.37</v>
+      </c>
+      <c r="M46">
+        <v>0.37</v>
+      </c>
+      <c r="N46">
+        <v>0.37</v>
+      </c>
+      <c r="O46">
+        <v>0.37</v>
+      </c>
+      <c r="P46">
+        <v>0.38</v>
+      </c>
+      <c r="Q46">
+        <v>0.38</v>
+      </c>
+      <c r="R46">
+        <v>0.38</v>
+      </c>
+      <c r="S46">
+        <v>0.38</v>
+      </c>
+      <c r="T46">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>0.33</v>
-      </c>
-      <c r="G46">
-        <v>0.34</v>
-      </c>
-      <c r="H46">
-        <v>0.35</v>
-      </c>
-      <c r="I46">
-        <v>0.35</v>
-      </c>
-      <c r="J46">
-        <v>0.36</v>
-      </c>
-      <c r="K46">
-        <v>0.36</v>
-      </c>
-      <c r="L46">
-        <v>0.37</v>
-      </c>
-      <c r="M46">
-        <v>0.37</v>
-      </c>
-      <c r="N46">
-        <v>0.37</v>
-      </c>
-      <c r="O46">
-        <v>0.37</v>
-      </c>
-      <c r="P46">
-        <v>0.38</v>
-      </c>
-      <c r="Q46">
-        <v>0.38</v>
-      </c>
-      <c r="R46">
-        <v>0.38</v>
-      </c>
-      <c r="S46">
-        <v>0.38</v>
-      </c>
-      <c r="T46">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>0.32</v>
@@ -3874,21 +3875,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <v>0.32</v>
@@ -3936,21 +3937,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>0.32</v>
@@ -3998,21 +3999,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>0.32</v>
@@ -4060,393 +4061,393 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>0.34</v>
+      </c>
+      <c r="G51">
+        <v>0.35</v>
+      </c>
+      <c r="H51">
+        <v>0.36</v>
+      </c>
+      <c r="I51">
+        <v>0.36</v>
+      </c>
+      <c r="J51">
+        <v>0.37</v>
+      </c>
+      <c r="K51">
+        <v>0.37</v>
+      </c>
+      <c r="L51">
+        <v>0.38</v>
+      </c>
+      <c r="M51">
+        <v>0.38</v>
+      </c>
+      <c r="N51">
+        <v>0.38</v>
+      </c>
+      <c r="O51">
+        <v>0.38</v>
+      </c>
+      <c r="P51">
+        <v>0.39</v>
+      </c>
+      <c r="Q51">
+        <v>0.39</v>
+      </c>
+      <c r="R51">
+        <v>0.39</v>
+      </c>
+      <c r="S51">
+        <v>0.39</v>
+      </c>
+      <c r="T51">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="D51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>0.33</v>
+      </c>
+      <c r="G52">
+        <v>0.34</v>
+      </c>
+      <c r="H52">
+        <v>0.35</v>
+      </c>
+      <c r="I52">
+        <v>0.35</v>
+      </c>
+      <c r="J52">
+        <v>0.36</v>
+      </c>
+      <c r="K52">
+        <v>0.36</v>
+      </c>
+      <c r="L52">
+        <v>0.37</v>
+      </c>
+      <c r="M52">
+        <v>0.37</v>
+      </c>
+      <c r="N52">
+        <v>0.37</v>
+      </c>
+      <c r="O52">
+        <v>0.37</v>
+      </c>
+      <c r="P52">
+        <v>0.38</v>
+      </c>
+      <c r="Q52">
+        <v>0.38</v>
+      </c>
+      <c r="R52">
+        <v>0.38</v>
+      </c>
+      <c r="S52">
+        <v>0.38</v>
+      </c>
+      <c r="T52">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>0.34</v>
+      </c>
+      <c r="G53">
+        <v>0.35</v>
+      </c>
+      <c r="H53">
+        <v>0.36</v>
+      </c>
+      <c r="I53">
+        <v>0.36</v>
+      </c>
+      <c r="J53">
+        <v>0.37</v>
+      </c>
+      <c r="K53">
+        <v>0.37</v>
+      </c>
+      <c r="L53">
+        <v>0.38</v>
+      </c>
+      <c r="M53">
+        <v>0.38</v>
+      </c>
+      <c r="N53">
+        <v>0.38</v>
+      </c>
+      <c r="O53">
+        <v>0.38</v>
+      </c>
+      <c r="P53">
+        <v>0.39</v>
+      </c>
+      <c r="Q53">
+        <v>0.39</v>
+      </c>
+      <c r="R53">
+        <v>0.39</v>
+      </c>
+      <c r="S53">
+        <v>0.39</v>
+      </c>
+      <c r="T53">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>0.33</v>
+      </c>
+      <c r="G54">
+        <v>0.34</v>
+      </c>
+      <c r="H54">
+        <v>0.35</v>
+      </c>
+      <c r="I54">
+        <v>0.35</v>
+      </c>
+      <c r="J54">
+        <v>0.36</v>
+      </c>
+      <c r="K54">
+        <v>0.36</v>
+      </c>
+      <c r="L54">
+        <v>0.37</v>
+      </c>
+      <c r="M54">
+        <v>0.37</v>
+      </c>
+      <c r="N54">
+        <v>0.37</v>
+      </c>
+      <c r="O54">
+        <v>0.37</v>
+      </c>
+      <c r="P54">
+        <v>0.38</v>
+      </c>
+      <c r="Q54">
+        <v>0.38</v>
+      </c>
+      <c r="R54">
+        <v>0.38</v>
+      </c>
+      <c r="S54">
+        <v>0.38</v>
+      </c>
+      <c r="T54">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="F51">
-        <v>0.34</v>
-      </c>
-      <c r="G51">
-        <v>0.35</v>
-      </c>
-      <c r="H51">
-        <v>0.36</v>
-      </c>
-      <c r="I51">
-        <v>0.36</v>
-      </c>
-      <c r="J51">
-        <v>0.37</v>
-      </c>
-      <c r="K51">
-        <v>0.37</v>
-      </c>
-      <c r="L51">
-        <v>0.38</v>
-      </c>
-      <c r="M51">
-        <v>0.38</v>
-      </c>
-      <c r="N51">
-        <v>0.38</v>
-      </c>
-      <c r="O51">
-        <v>0.38</v>
-      </c>
-      <c r="P51">
-        <v>0.39</v>
-      </c>
-      <c r="Q51">
-        <v>0.39</v>
-      </c>
-      <c r="R51">
-        <v>0.39</v>
-      </c>
-      <c r="S51">
-        <v>0.39</v>
-      </c>
-      <c r="T51">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>0.33</v>
-      </c>
-      <c r="G52">
-        <v>0.34</v>
-      </c>
-      <c r="H52">
-        <v>0.35</v>
-      </c>
-      <c r="I52">
-        <v>0.35</v>
-      </c>
-      <c r="J52">
-        <v>0.36</v>
-      </c>
-      <c r="K52">
-        <v>0.36</v>
-      </c>
-      <c r="L52">
-        <v>0.37</v>
-      </c>
-      <c r="M52">
-        <v>0.37</v>
-      </c>
-      <c r="N52">
-        <v>0.37</v>
-      </c>
-      <c r="O52">
-        <v>0.37</v>
-      </c>
-      <c r="P52">
-        <v>0.38</v>
-      </c>
-      <c r="Q52">
-        <v>0.38</v>
-      </c>
-      <c r="R52">
-        <v>0.38</v>
-      </c>
-      <c r="S52">
-        <v>0.38</v>
-      </c>
-      <c r="T52">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>0.34</v>
-      </c>
-      <c r="G53">
-        <v>0.35</v>
-      </c>
-      <c r="H53">
-        <v>0.36</v>
-      </c>
-      <c r="I53">
-        <v>0.36</v>
-      </c>
-      <c r="J53">
-        <v>0.37</v>
-      </c>
-      <c r="K53">
-        <v>0.37</v>
-      </c>
-      <c r="L53">
-        <v>0.38</v>
-      </c>
-      <c r="M53">
-        <v>0.38</v>
-      </c>
-      <c r="N53">
-        <v>0.38</v>
-      </c>
-      <c r="O53">
-        <v>0.38</v>
-      </c>
-      <c r="P53">
-        <v>0.39</v>
-      </c>
-      <c r="Q53">
-        <v>0.39</v>
-      </c>
-      <c r="R53">
-        <v>0.39</v>
-      </c>
-      <c r="S53">
-        <v>0.39</v>
-      </c>
-      <c r="T53">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>0.33</v>
-      </c>
-      <c r="G54">
-        <v>0.34</v>
-      </c>
-      <c r="H54">
-        <v>0.35</v>
-      </c>
-      <c r="I54">
-        <v>0.35</v>
-      </c>
-      <c r="J54">
-        <v>0.36</v>
-      </c>
-      <c r="K54">
-        <v>0.36</v>
-      </c>
-      <c r="L54">
-        <v>0.37</v>
-      </c>
-      <c r="M54">
-        <v>0.37</v>
-      </c>
-      <c r="N54">
-        <v>0.37</v>
-      </c>
-      <c r="O54">
-        <v>0.37</v>
-      </c>
-      <c r="P54">
-        <v>0.38</v>
-      </c>
-      <c r="Q54">
-        <v>0.38</v>
-      </c>
-      <c r="R54">
-        <v>0.38</v>
-      </c>
-      <c r="S54">
-        <v>0.38</v>
-      </c>
-      <c r="T54">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F55">
+        <v>0.34</v>
+      </c>
+      <c r="G55">
+        <v>0.35</v>
+      </c>
+      <c r="H55">
+        <v>0.36</v>
+      </c>
+      <c r="I55">
+        <v>0.36</v>
+      </c>
+      <c r="J55">
+        <v>0.37</v>
+      </c>
+      <c r="K55">
+        <v>0.37</v>
+      </c>
+      <c r="L55">
+        <v>0.38</v>
+      </c>
+      <c r="M55">
+        <v>0.38</v>
+      </c>
+      <c r="N55">
+        <v>0.38</v>
+      </c>
+      <c r="O55">
+        <v>0.38</v>
+      </c>
+      <c r="P55">
+        <v>0.39</v>
+      </c>
+      <c r="Q55">
+        <v>0.39</v>
+      </c>
+      <c r="R55">
+        <v>0.39</v>
+      </c>
+      <c r="S55">
+        <v>0.39</v>
+      </c>
+      <c r="T55">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <v>0.34</v>
-      </c>
-      <c r="G55">
-        <v>0.35</v>
-      </c>
-      <c r="H55">
-        <v>0.36</v>
-      </c>
-      <c r="I55">
-        <v>0.36</v>
-      </c>
-      <c r="J55">
-        <v>0.37</v>
-      </c>
-      <c r="K55">
-        <v>0.37</v>
-      </c>
-      <c r="L55">
-        <v>0.38</v>
-      </c>
-      <c r="M55">
-        <v>0.38</v>
-      </c>
-      <c r="N55">
-        <v>0.38</v>
-      </c>
-      <c r="O55">
-        <v>0.38</v>
-      </c>
-      <c r="P55">
-        <v>0.39</v>
-      </c>
-      <c r="Q55">
-        <v>0.39</v>
-      </c>
-      <c r="R55">
-        <v>0.39</v>
-      </c>
-      <c r="S55">
-        <v>0.39</v>
-      </c>
-      <c r="T55">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>0.34</v>
+      </c>
+      <c r="G56">
+        <v>0.35</v>
+      </c>
+      <c r="H56">
+        <v>0.36</v>
+      </c>
+      <c r="I56">
+        <v>0.36</v>
+      </c>
+      <c r="J56">
+        <v>0.37</v>
+      </c>
+      <c r="K56">
+        <v>0.37</v>
+      </c>
+      <c r="L56">
+        <v>0.38</v>
+      </c>
+      <c r="M56">
+        <v>0.38</v>
+      </c>
+      <c r="N56">
+        <v>0.38</v>
+      </c>
+      <c r="O56">
+        <v>0.38</v>
+      </c>
+      <c r="P56">
+        <v>0.39</v>
+      </c>
+      <c r="Q56">
+        <v>0.39</v>
+      </c>
+      <c r="R56">
+        <v>0.39</v>
+      </c>
+      <c r="S56">
+        <v>0.39</v>
+      </c>
+      <c r="T56">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <v>0.34</v>
-      </c>
-      <c r="G56">
-        <v>0.35</v>
-      </c>
-      <c r="H56">
-        <v>0.36</v>
-      </c>
-      <c r="I56">
-        <v>0.36</v>
-      </c>
-      <c r="J56">
-        <v>0.37</v>
-      </c>
-      <c r="K56">
-        <v>0.37</v>
-      </c>
-      <c r="L56">
-        <v>0.38</v>
-      </c>
-      <c r="M56">
-        <v>0.38</v>
-      </c>
-      <c r="N56">
-        <v>0.38</v>
-      </c>
-      <c r="O56">
-        <v>0.38</v>
-      </c>
-      <c r="P56">
-        <v>0.39</v>
-      </c>
-      <c r="Q56">
-        <v>0.39</v>
-      </c>
-      <c r="R56">
-        <v>0.39</v>
-      </c>
-      <c r="S56">
-        <v>0.39</v>
-      </c>
-      <c r="T56">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>0.32</v>
@@ -4494,83 +4495,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>0.33</v>
+      </c>
+      <c r="G58">
+        <v>0.34</v>
+      </c>
+      <c r="H58">
+        <v>0.35</v>
+      </c>
+      <c r="I58">
+        <v>0.35</v>
+      </c>
+      <c r="J58">
+        <v>0.36</v>
+      </c>
+      <c r="K58">
+        <v>0.36</v>
+      </c>
+      <c r="L58">
+        <v>0.37</v>
+      </c>
+      <c r="M58">
+        <v>0.37</v>
+      </c>
+      <c r="N58">
+        <v>0.37</v>
+      </c>
+      <c r="O58">
+        <v>0.37</v>
+      </c>
+      <c r="P58">
+        <v>0.38</v>
+      </c>
+      <c r="Q58">
+        <v>0.38</v>
+      </c>
+      <c r="R58">
+        <v>0.38</v>
+      </c>
+      <c r="S58">
+        <v>0.38</v>
+      </c>
+      <c r="T58">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <v>0.33</v>
-      </c>
-      <c r="G58">
-        <v>0.34</v>
-      </c>
-      <c r="H58">
-        <v>0.35</v>
-      </c>
-      <c r="I58">
-        <v>0.35</v>
-      </c>
-      <c r="J58">
-        <v>0.36</v>
-      </c>
-      <c r="K58">
-        <v>0.36</v>
-      </c>
-      <c r="L58">
-        <v>0.37</v>
-      </c>
-      <c r="M58">
-        <v>0.37</v>
-      </c>
-      <c r="N58">
-        <v>0.37</v>
-      </c>
-      <c r="O58">
-        <v>0.37</v>
-      </c>
-      <c r="P58">
-        <v>0.38</v>
-      </c>
-      <c r="Q58">
-        <v>0.38</v>
-      </c>
-      <c r="R58">
-        <v>0.38</v>
-      </c>
-      <c r="S58">
-        <v>0.38</v>
-      </c>
-      <c r="T58">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>0.31</v>
@@ -4618,21 +4619,21 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0.32</v>
@@ -4680,145 +4681,145 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>0.34</v>
+      </c>
+      <c r="G61">
+        <v>0.35</v>
+      </c>
+      <c r="H61">
+        <v>0.36</v>
+      </c>
+      <c r="I61">
+        <v>0.36</v>
+      </c>
+      <c r="J61">
+        <v>0.37</v>
+      </c>
+      <c r="K61">
+        <v>0.37</v>
+      </c>
+      <c r="L61">
+        <v>0.38</v>
+      </c>
+      <c r="M61">
+        <v>0.38</v>
+      </c>
+      <c r="N61">
+        <v>0.38</v>
+      </c>
+      <c r="O61">
+        <v>0.38</v>
+      </c>
+      <c r="P61">
+        <v>0.39</v>
+      </c>
+      <c r="Q61">
+        <v>0.39</v>
+      </c>
+      <c r="R61">
+        <v>0.39</v>
+      </c>
+      <c r="S61">
+        <v>0.39</v>
+      </c>
+      <c r="T61">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>0.34</v>
-      </c>
-      <c r="G61">
-        <v>0.35</v>
-      </c>
-      <c r="H61">
-        <v>0.36</v>
-      </c>
-      <c r="I61">
-        <v>0.36</v>
-      </c>
-      <c r="J61">
-        <v>0.37</v>
-      </c>
-      <c r="K61">
-        <v>0.37</v>
-      </c>
-      <c r="L61">
-        <v>0.38</v>
-      </c>
-      <c r="M61">
-        <v>0.38</v>
-      </c>
-      <c r="N61">
-        <v>0.38</v>
-      </c>
-      <c r="O61">
-        <v>0.38</v>
-      </c>
-      <c r="P61">
-        <v>0.39</v>
-      </c>
-      <c r="Q61">
-        <v>0.39</v>
-      </c>
-      <c r="R61">
-        <v>0.39</v>
-      </c>
-      <c r="S61">
-        <v>0.39</v>
-      </c>
-      <c r="T61">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>0.34</v>
+      </c>
+      <c r="G62">
+        <v>0.35</v>
+      </c>
+      <c r="H62">
+        <v>0.36</v>
+      </c>
+      <c r="I62">
+        <v>0.36</v>
+      </c>
+      <c r="J62">
+        <v>0.37</v>
+      </c>
+      <c r="K62">
+        <v>0.37</v>
+      </c>
+      <c r="L62">
+        <v>0.38</v>
+      </c>
+      <c r="M62">
+        <v>0.38</v>
+      </c>
+      <c r="N62">
+        <v>0.38</v>
+      </c>
+      <c r="O62">
+        <v>0.38</v>
+      </c>
+      <c r="P62">
+        <v>0.39</v>
+      </c>
+      <c r="Q62">
+        <v>0.39</v>
+      </c>
+      <c r="R62">
+        <v>0.39</v>
+      </c>
+      <c r="S62">
+        <v>0.39</v>
+      </c>
+      <c r="T62">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62">
-        <v>0.34</v>
-      </c>
-      <c r="G62">
-        <v>0.35</v>
-      </c>
-      <c r="H62">
-        <v>0.36</v>
-      </c>
-      <c r="I62">
-        <v>0.36</v>
-      </c>
-      <c r="J62">
-        <v>0.37</v>
-      </c>
-      <c r="K62">
-        <v>0.37</v>
-      </c>
-      <c r="L62">
-        <v>0.38</v>
-      </c>
-      <c r="M62">
-        <v>0.38</v>
-      </c>
-      <c r="N62">
-        <v>0.38</v>
-      </c>
-      <c r="O62">
-        <v>0.38</v>
-      </c>
-      <c r="P62">
-        <v>0.39</v>
-      </c>
-      <c r="Q62">
-        <v>0.39</v>
-      </c>
-      <c r="R62">
-        <v>0.39</v>
-      </c>
-      <c r="S62">
-        <v>0.39</v>
-      </c>
-      <c r="T62">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>0.32</v>
@@ -4866,393 +4867,393 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>0.33</v>
+      </c>
+      <c r="G64">
+        <v>0.34</v>
+      </c>
+      <c r="H64">
+        <v>0.35</v>
+      </c>
+      <c r="I64">
+        <v>0.35</v>
+      </c>
+      <c r="J64">
+        <v>0.36</v>
+      </c>
+      <c r="K64">
+        <v>0.36</v>
+      </c>
+      <c r="L64">
+        <v>0.37</v>
+      </c>
+      <c r="M64">
+        <v>0.37</v>
+      </c>
+      <c r="N64">
+        <v>0.37</v>
+      </c>
+      <c r="O64">
+        <v>0.37</v>
+      </c>
+      <c r="P64">
+        <v>0.38</v>
+      </c>
+      <c r="Q64">
+        <v>0.38</v>
+      </c>
+      <c r="R64">
+        <v>0.38</v>
+      </c>
+      <c r="S64">
+        <v>0.38</v>
+      </c>
+      <c r="T64">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64">
-        <v>0.33</v>
-      </c>
-      <c r="G64">
-        <v>0.34</v>
-      </c>
-      <c r="H64">
-        <v>0.35</v>
-      </c>
-      <c r="I64">
-        <v>0.35</v>
-      </c>
-      <c r="J64">
-        <v>0.36</v>
-      </c>
-      <c r="K64">
-        <v>0.36</v>
-      </c>
-      <c r="L64">
-        <v>0.37</v>
-      </c>
-      <c r="M64">
-        <v>0.37</v>
-      </c>
-      <c r="N64">
-        <v>0.37</v>
-      </c>
-      <c r="O64">
-        <v>0.37</v>
-      </c>
-      <c r="P64">
-        <v>0.38</v>
-      </c>
-      <c r="Q64">
-        <v>0.38</v>
-      </c>
-      <c r="R64">
-        <v>0.38</v>
-      </c>
-      <c r="S64">
-        <v>0.38</v>
-      </c>
-      <c r="T64">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>0.33</v>
+      </c>
+      <c r="G65">
+        <v>0.34</v>
+      </c>
+      <c r="H65">
+        <v>0.35</v>
+      </c>
+      <c r="I65">
+        <v>0.35</v>
+      </c>
+      <c r="J65">
+        <v>0.36</v>
+      </c>
+      <c r="K65">
+        <v>0.36</v>
+      </c>
+      <c r="L65">
+        <v>0.37</v>
+      </c>
+      <c r="M65">
+        <v>0.37</v>
+      </c>
+      <c r="N65">
+        <v>0.37</v>
+      </c>
+      <c r="O65">
+        <v>0.37</v>
+      </c>
+      <c r="P65">
+        <v>0.38</v>
+      </c>
+      <c r="Q65">
+        <v>0.38</v>
+      </c>
+      <c r="R65">
+        <v>0.38</v>
+      </c>
+      <c r="S65">
+        <v>0.38</v>
+      </c>
+      <c r="T65">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65">
-        <v>0.33</v>
-      </c>
-      <c r="G65">
-        <v>0.34</v>
-      </c>
-      <c r="H65">
-        <v>0.35</v>
-      </c>
-      <c r="I65">
-        <v>0.35</v>
-      </c>
-      <c r="J65">
-        <v>0.36</v>
-      </c>
-      <c r="K65">
-        <v>0.36</v>
-      </c>
-      <c r="L65">
-        <v>0.37</v>
-      </c>
-      <c r="M65">
-        <v>0.37</v>
-      </c>
-      <c r="N65">
-        <v>0.37</v>
-      </c>
-      <c r="O65">
-        <v>0.37</v>
-      </c>
-      <c r="P65">
-        <v>0.38</v>
-      </c>
-      <c r="Q65">
-        <v>0.38</v>
-      </c>
-      <c r="R65">
-        <v>0.38</v>
-      </c>
-      <c r="S65">
-        <v>0.38</v>
-      </c>
-      <c r="T65">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>0.34</v>
+      </c>
+      <c r="G66">
+        <v>0.35</v>
+      </c>
+      <c r="H66">
+        <v>0.36</v>
+      </c>
+      <c r="I66">
+        <v>0.36</v>
+      </c>
+      <c r="J66">
+        <v>0.37</v>
+      </c>
+      <c r="K66">
+        <v>0.37</v>
+      </c>
+      <c r="L66">
+        <v>0.38</v>
+      </c>
+      <c r="M66">
+        <v>0.38</v>
+      </c>
+      <c r="N66">
+        <v>0.38</v>
+      </c>
+      <c r="O66">
+        <v>0.38</v>
+      </c>
+      <c r="P66">
+        <v>0.39</v>
+      </c>
+      <c r="Q66">
+        <v>0.39</v>
+      </c>
+      <c r="R66">
+        <v>0.39</v>
+      </c>
+      <c r="S66">
+        <v>0.39</v>
+      </c>
+      <c r="T66">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
         <v>18</v>
       </c>
-      <c r="D66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66">
-        <v>0.34</v>
-      </c>
-      <c r="G66">
-        <v>0.35</v>
-      </c>
-      <c r="H66">
-        <v>0.36</v>
-      </c>
-      <c r="I66">
-        <v>0.36</v>
-      </c>
-      <c r="J66">
-        <v>0.37</v>
-      </c>
-      <c r="K66">
-        <v>0.37</v>
-      </c>
-      <c r="L66">
-        <v>0.38</v>
-      </c>
-      <c r="M66">
-        <v>0.38</v>
-      </c>
-      <c r="N66">
-        <v>0.38</v>
-      </c>
-      <c r="O66">
-        <v>0.38</v>
-      </c>
-      <c r="P66">
-        <v>0.39</v>
-      </c>
-      <c r="Q66">
-        <v>0.39</v>
-      </c>
-      <c r="R66">
-        <v>0.39</v>
-      </c>
-      <c r="S66">
-        <v>0.39</v>
-      </c>
-      <c r="T66">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>0.33</v>
+      </c>
+      <c r="G67">
+        <v>0.34</v>
+      </c>
+      <c r="H67">
+        <v>0.35</v>
+      </c>
+      <c r="I67">
+        <v>0.35</v>
+      </c>
+      <c r="J67">
+        <v>0.36</v>
+      </c>
+      <c r="K67">
+        <v>0.36</v>
+      </c>
+      <c r="L67">
+        <v>0.37</v>
+      </c>
+      <c r="M67">
+        <v>0.37</v>
+      </c>
+      <c r="N67">
+        <v>0.37</v>
+      </c>
+      <c r="O67">
+        <v>0.37</v>
+      </c>
+      <c r="P67">
+        <v>0.38</v>
+      </c>
+      <c r="Q67">
+        <v>0.38</v>
+      </c>
+      <c r="R67">
+        <v>0.38</v>
+      </c>
+      <c r="S67">
+        <v>0.38</v>
+      </c>
+      <c r="T67">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67">
-        <v>0.33</v>
-      </c>
-      <c r="G67">
-        <v>0.34</v>
-      </c>
-      <c r="H67">
-        <v>0.35</v>
-      </c>
-      <c r="I67">
-        <v>0.35</v>
-      </c>
-      <c r="J67">
-        <v>0.36</v>
-      </c>
-      <c r="K67">
-        <v>0.36</v>
-      </c>
-      <c r="L67">
-        <v>0.37</v>
-      </c>
-      <c r="M67">
-        <v>0.37</v>
-      </c>
-      <c r="N67">
-        <v>0.37</v>
-      </c>
-      <c r="O67">
-        <v>0.37</v>
-      </c>
-      <c r="P67">
-        <v>0.38</v>
-      </c>
-      <c r="Q67">
-        <v>0.38</v>
-      </c>
-      <c r="R67">
-        <v>0.38</v>
-      </c>
-      <c r="S67">
-        <v>0.38</v>
-      </c>
-      <c r="T67">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>0.33</v>
+      </c>
+      <c r="G68">
+        <v>0.34</v>
+      </c>
+      <c r="H68">
+        <v>0.35</v>
+      </c>
+      <c r="I68">
+        <v>0.35</v>
+      </c>
+      <c r="J68">
+        <v>0.36</v>
+      </c>
+      <c r="K68">
+        <v>0.36</v>
+      </c>
+      <c r="L68">
+        <v>0.37</v>
+      </c>
+      <c r="M68">
+        <v>0.37</v>
+      </c>
+      <c r="N68">
+        <v>0.37</v>
+      </c>
+      <c r="O68">
+        <v>0.37</v>
+      </c>
+      <c r="P68">
+        <v>0.38</v>
+      </c>
+      <c r="Q68">
+        <v>0.38</v>
+      </c>
+      <c r="R68">
+        <v>0.38</v>
+      </c>
+      <c r="S68">
+        <v>0.38</v>
+      </c>
+      <c r="T68">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
         <v>20</v>
       </c>
-      <c r="D68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68">
-        <v>0.33</v>
-      </c>
-      <c r="G68">
-        <v>0.34</v>
-      </c>
-      <c r="H68">
-        <v>0.35</v>
-      </c>
-      <c r="I68">
-        <v>0.35</v>
-      </c>
-      <c r="J68">
-        <v>0.36</v>
-      </c>
-      <c r="K68">
-        <v>0.36</v>
-      </c>
-      <c r="L68">
-        <v>0.37</v>
-      </c>
-      <c r="M68">
-        <v>0.37</v>
-      </c>
-      <c r="N68">
-        <v>0.37</v>
-      </c>
-      <c r="O68">
-        <v>0.37</v>
-      </c>
-      <c r="P68">
-        <v>0.38</v>
-      </c>
-      <c r="Q68">
-        <v>0.38</v>
-      </c>
-      <c r="R68">
-        <v>0.38</v>
-      </c>
-      <c r="S68">
-        <v>0.38</v>
-      </c>
-      <c r="T68">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>0.33</v>
+      </c>
+      <c r="G69">
+        <v>0.34</v>
+      </c>
+      <c r="H69">
+        <v>0.35</v>
+      </c>
+      <c r="I69">
+        <v>0.35</v>
+      </c>
+      <c r="J69">
+        <v>0.36</v>
+      </c>
+      <c r="K69">
+        <v>0.36</v>
+      </c>
+      <c r="L69">
+        <v>0.37</v>
+      </c>
+      <c r="M69">
+        <v>0.37</v>
+      </c>
+      <c r="N69">
+        <v>0.37</v>
+      </c>
+      <c r="O69">
+        <v>0.37</v>
+      </c>
+      <c r="P69">
+        <v>0.38</v>
+      </c>
+      <c r="Q69">
+        <v>0.38</v>
+      </c>
+      <c r="R69">
+        <v>0.38</v>
+      </c>
+      <c r="S69">
+        <v>0.38</v>
+      </c>
+      <c r="T69">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
         <v>21</v>
       </c>
-      <c r="D69" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69">
-        <v>0.33</v>
-      </c>
-      <c r="G69">
-        <v>0.34</v>
-      </c>
-      <c r="H69">
-        <v>0.35</v>
-      </c>
-      <c r="I69">
-        <v>0.35</v>
-      </c>
-      <c r="J69">
-        <v>0.36</v>
-      </c>
-      <c r="K69">
-        <v>0.36</v>
-      </c>
-      <c r="L69">
-        <v>0.37</v>
-      </c>
-      <c r="M69">
-        <v>0.37</v>
-      </c>
-      <c r="N69">
-        <v>0.37</v>
-      </c>
-      <c r="O69">
-        <v>0.37</v>
-      </c>
-      <c r="P69">
-        <v>0.38</v>
-      </c>
-      <c r="Q69">
-        <v>0.38</v>
-      </c>
-      <c r="R69">
-        <v>0.38</v>
-      </c>
-      <c r="S69">
-        <v>0.38</v>
-      </c>
-      <c r="T69">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>0.32</v>
@@ -5300,21 +5301,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>0.32</v>
@@ -5362,83 +5363,83 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>0.33</v>
+      </c>
+      <c r="G72">
+        <v>0.34</v>
+      </c>
+      <c r="H72">
+        <v>0.35</v>
+      </c>
+      <c r="I72">
+        <v>0.35</v>
+      </c>
+      <c r="J72">
+        <v>0.36</v>
+      </c>
+      <c r="K72">
+        <v>0.36</v>
+      </c>
+      <c r="L72">
+        <v>0.37</v>
+      </c>
+      <c r="M72">
+        <v>0.37</v>
+      </c>
+      <c r="N72">
+        <v>0.37</v>
+      </c>
+      <c r="O72">
+        <v>0.37</v>
+      </c>
+      <c r="P72">
+        <v>0.38</v>
+      </c>
+      <c r="Q72">
+        <v>0.38</v>
+      </c>
+      <c r="R72">
+        <v>0.38</v>
+      </c>
+      <c r="S72">
+        <v>0.38</v>
+      </c>
+      <c r="T72">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
         <v>24</v>
       </c>
-      <c r="D72" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72">
-        <v>0.33</v>
-      </c>
-      <c r="G72">
-        <v>0.34</v>
-      </c>
-      <c r="H72">
-        <v>0.35</v>
-      </c>
-      <c r="I72">
-        <v>0.35</v>
-      </c>
-      <c r="J72">
-        <v>0.36</v>
-      </c>
-      <c r="K72">
-        <v>0.36</v>
-      </c>
-      <c r="L72">
-        <v>0.37</v>
-      </c>
-      <c r="M72">
-        <v>0.37</v>
-      </c>
-      <c r="N72">
-        <v>0.37</v>
-      </c>
-      <c r="O72">
-        <v>0.37</v>
-      </c>
-      <c r="P72">
-        <v>0.38</v>
-      </c>
-      <c r="Q72">
-        <v>0.38</v>
-      </c>
-      <c r="R72">
-        <v>0.38</v>
-      </c>
-      <c r="S72">
-        <v>0.38</v>
-      </c>
-      <c r="T72">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>0.32</v>
@@ -5486,21 +5487,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>0.32</v>
@@ -5548,21 +5549,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>0.32</v>
@@ -5610,21 +5611,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>0.32</v>
@@ -5672,207 +5673,207 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>0.34</v>
+      </c>
+      <c r="G77">
+        <v>0.35</v>
+      </c>
+      <c r="H77">
+        <v>0.36</v>
+      </c>
+      <c r="I77">
+        <v>0.36</v>
+      </c>
+      <c r="J77">
+        <v>0.37</v>
+      </c>
+      <c r="K77">
+        <v>0.37</v>
+      </c>
+      <c r="L77">
+        <v>0.38</v>
+      </c>
+      <c r="M77">
+        <v>0.38</v>
+      </c>
+      <c r="N77">
+        <v>0.38</v>
+      </c>
+      <c r="O77">
+        <v>0.38</v>
+      </c>
+      <c r="P77">
+        <v>0.39</v>
+      </c>
+      <c r="Q77">
+        <v>0.39</v>
+      </c>
+      <c r="R77">
+        <v>0.39</v>
+      </c>
+      <c r="S77">
+        <v>0.39</v>
+      </c>
+      <c r="T77">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>29</v>
       </c>
-      <c r="D77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77">
-        <v>0.34</v>
-      </c>
-      <c r="G77">
-        <v>0.35</v>
-      </c>
-      <c r="H77">
-        <v>0.36</v>
-      </c>
-      <c r="I77">
-        <v>0.36</v>
-      </c>
-      <c r="J77">
-        <v>0.37</v>
-      </c>
-      <c r="K77">
-        <v>0.37</v>
-      </c>
-      <c r="L77">
-        <v>0.38</v>
-      </c>
-      <c r="M77">
-        <v>0.38</v>
-      </c>
-      <c r="N77">
-        <v>0.38</v>
-      </c>
-      <c r="O77">
-        <v>0.38</v>
-      </c>
-      <c r="P77">
-        <v>0.39</v>
-      </c>
-      <c r="Q77">
-        <v>0.39</v>
-      </c>
-      <c r="R77">
-        <v>0.39</v>
-      </c>
-      <c r="S77">
-        <v>0.39</v>
-      </c>
-      <c r="T77">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>0.33</v>
+      </c>
+      <c r="G78">
+        <v>0.34</v>
+      </c>
+      <c r="H78">
+        <v>0.35</v>
+      </c>
+      <c r="I78">
+        <v>0.35</v>
+      </c>
+      <c r="J78">
+        <v>0.36</v>
+      </c>
+      <c r="K78">
+        <v>0.36</v>
+      </c>
+      <c r="L78">
+        <v>0.37</v>
+      </c>
+      <c r="M78">
+        <v>0.37</v>
+      </c>
+      <c r="N78">
+        <v>0.37</v>
+      </c>
+      <c r="O78">
+        <v>0.37</v>
+      </c>
+      <c r="P78">
+        <v>0.38</v>
+      </c>
+      <c r="Q78">
+        <v>0.38</v>
+      </c>
+      <c r="R78">
+        <v>0.38</v>
+      </c>
+      <c r="S78">
+        <v>0.38</v>
+      </c>
+      <c r="T78">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>30</v>
       </c>
-      <c r="D78" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78">
-        <v>0.33</v>
-      </c>
-      <c r="G78">
-        <v>0.34</v>
-      </c>
-      <c r="H78">
-        <v>0.35</v>
-      </c>
-      <c r="I78">
-        <v>0.35</v>
-      </c>
-      <c r="J78">
-        <v>0.36</v>
-      </c>
-      <c r="K78">
-        <v>0.36</v>
-      </c>
-      <c r="L78">
-        <v>0.37</v>
-      </c>
-      <c r="M78">
-        <v>0.37</v>
-      </c>
-      <c r="N78">
-        <v>0.37</v>
-      </c>
-      <c r="O78">
-        <v>0.37</v>
-      </c>
-      <c r="P78">
-        <v>0.38</v>
-      </c>
-      <c r="Q78">
-        <v>0.38</v>
-      </c>
-      <c r="R78">
-        <v>0.38</v>
-      </c>
-      <c r="S78">
-        <v>0.38</v>
-      </c>
-      <c r="T78">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>0.34</v>
+      </c>
+      <c r="G79">
+        <v>0.35</v>
+      </c>
+      <c r="H79">
+        <v>0.36</v>
+      </c>
+      <c r="I79">
+        <v>0.36</v>
+      </c>
+      <c r="J79">
+        <v>0.37</v>
+      </c>
+      <c r="K79">
+        <v>0.37</v>
+      </c>
+      <c r="L79">
+        <v>0.38</v>
+      </c>
+      <c r="M79">
+        <v>0.38</v>
+      </c>
+      <c r="N79">
+        <v>0.38</v>
+      </c>
+      <c r="O79">
+        <v>0.38</v>
+      </c>
+      <c r="P79">
+        <v>0.39</v>
+      </c>
+      <c r="Q79">
+        <v>0.39</v>
+      </c>
+      <c r="R79">
+        <v>0.39</v>
+      </c>
+      <c r="S79">
+        <v>0.39</v>
+      </c>
+      <c r="T79">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
         <v>31</v>
-      </c>
-      <c r="D79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79">
-        <v>0.34</v>
-      </c>
-      <c r="G79">
-        <v>0.35</v>
-      </c>
-      <c r="H79">
-        <v>0.36</v>
-      </c>
-      <c r="I79">
-        <v>0.36</v>
-      </c>
-      <c r="J79">
-        <v>0.37</v>
-      </c>
-      <c r="K79">
-        <v>0.37</v>
-      </c>
-      <c r="L79">
-        <v>0.38</v>
-      </c>
-      <c r="M79">
-        <v>0.38</v>
-      </c>
-      <c r="N79">
-        <v>0.38</v>
-      </c>
-      <c r="O79">
-        <v>0.38</v>
-      </c>
-      <c r="P79">
-        <v>0.39</v>
-      </c>
-      <c r="Q79">
-        <v>0.39</v>
-      </c>
-      <c r="R79">
-        <v>0.39</v>
-      </c>
-      <c r="S79">
-        <v>0.39</v>
-      </c>
-      <c r="T79">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" t="s">
-        <v>32</v>
       </c>
       <c r="F80">
         <v>0.34</v>
@@ -5920,21 +5921,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81">
         <v>0.35</v>
@@ -5982,21 +5983,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82">
         <v>0.35</v>
@@ -6044,21 +6045,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83">
         <v>0.33</v>
@@ -6106,21 +6107,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84">
         <v>0.34</v>
@@ -6168,21 +6169,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F85">
         <v>0.32</v>
@@ -6230,21 +6231,21 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86">
         <v>0.33</v>
@@ -6292,21 +6293,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87">
         <v>0.35</v>
@@ -6354,21 +6355,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88">
         <v>0.35</v>
@@ -6416,21 +6417,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89">
         <v>0.33</v>
@@ -6478,21 +6479,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F90">
         <v>0.34</v>
@@ -6540,21 +6541,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91">
         <v>0.34</v>
@@ -6602,21 +6603,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92">
         <v>0.35</v>
@@ -6664,21 +6665,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93">
         <v>0.34</v>
@@ -6726,21 +6727,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94">
         <v>0.34</v>
@@ -6788,21 +6789,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95">
         <v>0.34</v>
@@ -6850,21 +6851,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96">
         <v>0.33</v>
@@ -6912,21 +6913,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97">
         <v>0.33</v>
@@ -6974,21 +6975,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98">
         <v>0.34</v>
@@ -7036,21 +7037,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99">
         <v>0.33</v>
@@ -7098,21 +7099,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100">
         <v>0.33</v>
@@ -7160,21 +7161,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101">
         <v>0.33</v>
@@ -7222,21 +7223,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102">
         <v>0.33</v>
@@ -7284,21 +7285,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F103">
         <v>0.35</v>
@@ -7346,21 +7347,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F104">
         <v>0.34</v>
@@ -7408,21 +7409,21 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
         <v>31</v>
-      </c>
-      <c r="D105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" t="s">
-        <v>32</v>
       </c>
       <c r="F105">
         <v>0.35</v>
@@ -7470,21 +7471,21 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
         <v>33</v>
       </c>
-      <c r="B106" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" t="s">
-        <v>35</v>
-      </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106">
         <v>0.32</v>
@@ -7532,21 +7533,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>35</v>
-      </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F107">
         <v>0.24</v>
@@ -7594,21 +7595,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
         <v>33</v>
       </c>
-      <c r="B108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108">
         <v>0.24</v>
@@ -7656,21 +7657,21 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
         <v>33</v>
       </c>
-      <c r="B109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>35</v>
-      </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109">
         <v>0.32</v>
@@ -7718,21 +7719,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
         <v>33</v>
       </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" t="s">
-        <v>35</v>
-      </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110">
         <v>0.32</v>
@@ -7780,21 +7781,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
         <v>33</v>
       </c>
-      <c r="B111" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>35</v>
-      </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F111">
         <v>0.31</v>
@@ -7842,21 +7843,21 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
         <v>33</v>
       </c>
-      <c r="B112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s">
-        <v>35</v>
-      </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F112">
         <v>0.32</v>
@@ -7904,83 +7905,83 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
         <v>33</v>
       </c>
-      <c r="B113" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113">
+        <v>0.33</v>
+      </c>
+      <c r="G113">
+        <v>0.33</v>
+      </c>
+      <c r="H113">
+        <v>0.34</v>
+      </c>
+      <c r="I113">
+        <v>0.34</v>
+      </c>
+      <c r="J113">
+        <v>0.35</v>
+      </c>
+      <c r="K113">
+        <v>0.35</v>
+      </c>
+      <c r="L113">
+        <v>0.35</v>
+      </c>
+      <c r="M113">
+        <v>0.35</v>
+      </c>
+      <c r="N113">
+        <v>0.35</v>
+      </c>
+      <c r="O113">
+        <v>0.36</v>
+      </c>
+      <c r="P113">
+        <v>0.36</v>
+      </c>
+      <c r="Q113">
+        <v>0.36</v>
+      </c>
+      <c r="R113">
+        <v>0.36</v>
+      </c>
+      <c r="S113">
+        <v>0.36</v>
+      </c>
+      <c r="T113">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" t="s">
         <v>13</v>
       </c>
-      <c r="D113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" t="s">
-        <v>32</v>
-      </c>
-      <c r="F113">
-        <v>0.33</v>
-      </c>
-      <c r="G113">
-        <v>0.33</v>
-      </c>
-      <c r="H113">
-        <v>0.34</v>
-      </c>
-      <c r="I113">
-        <v>0.34</v>
-      </c>
-      <c r="J113">
-        <v>0.35</v>
-      </c>
-      <c r="K113">
-        <v>0.35</v>
-      </c>
-      <c r="L113">
-        <v>0.35</v>
-      </c>
-      <c r="M113">
-        <v>0.35</v>
-      </c>
-      <c r="N113">
-        <v>0.35</v>
-      </c>
-      <c r="O113">
-        <v>0.36</v>
-      </c>
-      <c r="P113">
-        <v>0.36</v>
-      </c>
-      <c r="Q113">
-        <v>0.36</v>
-      </c>
-      <c r="R113">
-        <v>0.36</v>
-      </c>
-      <c r="S113">
-        <v>0.36</v>
-      </c>
-      <c r="T113">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="D114" t="s">
         <v>33</v>
       </c>
-      <c r="B114" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>35</v>
-      </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114">
         <v>0.24</v>
@@ -8028,21 +8029,21 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>35</v>
-      </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115">
         <v>0.32</v>
@@ -8090,21 +8091,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
         <v>33</v>
       </c>
-      <c r="B116" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>35</v>
-      </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116">
         <v>0.32</v>
@@ -8152,21 +8153,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
         <v>33</v>
       </c>
-      <c r="B117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>35</v>
-      </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F117">
         <v>0.32</v>
@@ -8214,83 +8215,83 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
         <v>33</v>
       </c>
-      <c r="B118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118">
+        <v>0.33</v>
+      </c>
+      <c r="G118">
+        <v>0.33</v>
+      </c>
+      <c r="H118">
+        <v>0.34</v>
+      </c>
+      <c r="I118">
+        <v>0.34</v>
+      </c>
+      <c r="J118">
+        <v>0.35</v>
+      </c>
+      <c r="K118">
+        <v>0.35</v>
+      </c>
+      <c r="L118">
+        <v>0.35</v>
+      </c>
+      <c r="M118">
+        <v>0.35</v>
+      </c>
+      <c r="N118">
+        <v>0.35</v>
+      </c>
+      <c r="O118">
+        <v>0.36</v>
+      </c>
+      <c r="P118">
+        <v>0.36</v>
+      </c>
+      <c r="Q118">
+        <v>0.36</v>
+      </c>
+      <c r="R118">
+        <v>0.36</v>
+      </c>
+      <c r="S118">
+        <v>0.36</v>
+      </c>
+      <c r="T118">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
         <v>18</v>
       </c>
-      <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118">
-        <v>0.33</v>
-      </c>
-      <c r="G118">
-        <v>0.33</v>
-      </c>
-      <c r="H118">
-        <v>0.34</v>
-      </c>
-      <c r="I118">
-        <v>0.34</v>
-      </c>
-      <c r="J118">
-        <v>0.35</v>
-      </c>
-      <c r="K118">
-        <v>0.35</v>
-      </c>
-      <c r="L118">
-        <v>0.35</v>
-      </c>
-      <c r="M118">
-        <v>0.35</v>
-      </c>
-      <c r="N118">
-        <v>0.35</v>
-      </c>
-      <c r="O118">
-        <v>0.36</v>
-      </c>
-      <c r="P118">
-        <v>0.36</v>
-      </c>
-      <c r="Q118">
-        <v>0.36</v>
-      </c>
-      <c r="R118">
-        <v>0.36</v>
-      </c>
-      <c r="S118">
-        <v>0.36</v>
-      </c>
-      <c r="T118">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="D119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" t="s">
-        <v>35</v>
-      </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F119">
         <v>0.32</v>
@@ -8338,21 +8339,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
         <v>33</v>
       </c>
-      <c r="B120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" t="s">
-        <v>35</v>
-      </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F120">
         <v>0.32</v>
@@ -8400,21 +8401,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
         <v>33</v>
       </c>
-      <c r="B121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" t="s">
-        <v>35</v>
-      </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F121">
         <v>0.32</v>
@@ -8462,21 +8463,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
         <v>33</v>
       </c>
-      <c r="B122" t="s">
-        <v>34</v>
-      </c>
-      <c r="C122" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" t="s">
-        <v>35</v>
-      </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F122">
         <v>0.32</v>
@@ -8524,21 +8525,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
         <v>33</v>
       </c>
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" t="s">
-        <v>35</v>
-      </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123">
         <v>0.12</v>
@@ -8586,21 +8587,21 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" t="s">
         <v>33</v>
       </c>
-      <c r="B124" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" t="s">
-        <v>35</v>
-      </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F124">
         <v>0.32</v>
@@ -8648,21 +8649,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
         <v>33</v>
       </c>
-      <c r="B125" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" t="s">
-        <v>35</v>
-      </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F125">
         <v>0.32</v>
@@ -8710,21 +8711,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
         <v>33</v>
       </c>
-      <c r="B126" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126" t="s">
-        <v>35</v>
-      </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126">
         <v>0.32</v>
@@ -8772,21 +8773,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
         <v>33</v>
       </c>
-      <c r="B127" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" t="s">
-        <v>35</v>
-      </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127">
         <v>0.32</v>
@@ -8834,21 +8835,21 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
         <v>33</v>
       </c>
-      <c r="B128" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" t="s">
-        <v>35</v>
-      </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F128">
         <v>0.32</v>
@@ -8896,21 +8897,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
         <v>33</v>
       </c>
-      <c r="B129" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s">
-        <v>35</v>
-      </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F129">
         <v>0.44</v>
@@ -8958,21 +8959,21 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
         <v>33</v>
       </c>
-      <c r="B130" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" t="s">
-        <v>35</v>
-      </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F130">
         <v>0.32</v>
@@ -9020,21 +9021,21 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
         <v>33</v>
       </c>
-      <c r="B131" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>31</v>
-      </c>
-      <c r="D131" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" t="s">
-        <v>32</v>
       </c>
       <c r="F131">
         <v>0.24</v>
@@ -9082,21 +9083,21 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
         <v>34</v>
       </c>
-      <c r="C132" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" t="s">
-        <v>36</v>
-      </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F132">
         <v>0.33</v>
@@ -9144,21 +9145,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
         <v>34</v>
       </c>
-      <c r="C133" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" t="s">
-        <v>36</v>
-      </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133">
         <v>0.34</v>
@@ -9206,21 +9207,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
         <v>34</v>
       </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>36</v>
-      </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134">
         <v>0.34</v>
@@ -9268,21 +9269,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
         <v>34</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>36</v>
-      </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F135">
         <v>0.32</v>
@@ -9330,21 +9331,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
         <v>34</v>
       </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
-        <v>36</v>
-      </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F136">
         <v>0.33</v>
@@ -9392,21 +9393,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
         <v>34</v>
       </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>36</v>
-      </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137">
         <v>0.31</v>
@@ -9454,21 +9455,21 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
         <v>34</v>
       </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" t="s">
-        <v>36</v>
-      </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F138">
         <v>0.32</v>
@@ -9516,21 +9517,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
         <v>34</v>
       </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>36</v>
-      </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F139">
         <v>0.34</v>
@@ -9578,21 +9579,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
         <v>34</v>
       </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>36</v>
-      </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F140">
         <v>0.34</v>
@@ -9640,21 +9641,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
         <v>34</v>
       </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>36</v>
-      </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F141">
         <v>0.32</v>
@@ -9702,21 +9703,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
         <v>34</v>
       </c>
-      <c r="C142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" t="s">
-        <v>36</v>
-      </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F142">
         <v>0.33</v>
@@ -9764,21 +9765,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B143" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
         <v>34</v>
       </c>
-      <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" t="s">
-        <v>36</v>
-      </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F143">
         <v>0.33</v>
@@ -9826,21 +9827,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
         <v>34</v>
       </c>
-      <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" t="s">
-        <v>36</v>
-      </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F144">
         <v>0.34</v>
@@ -9888,21 +9889,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
         <v>34</v>
       </c>
-      <c r="C145" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" t="s">
-        <v>36</v>
-      </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F145">
         <v>0.33</v>
@@ -9950,21 +9951,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
         <v>34</v>
       </c>
-      <c r="C146" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" t="s">
-        <v>36</v>
-      </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F146">
         <v>0.33</v>
@@ -10012,21 +10013,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
         <v>34</v>
       </c>
-      <c r="C147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" t="s">
-        <v>36</v>
-      </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F147">
         <v>0.33</v>
@@ -10074,21 +10075,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" t="s">
         <v>34</v>
       </c>
-      <c r="C148" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" t="s">
-        <v>36</v>
-      </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F148">
         <v>0.32</v>
@@ -10136,21 +10137,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
         <v>34</v>
       </c>
-      <c r="C149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" t="s">
-        <v>36</v>
-      </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F149">
         <v>0.32</v>
@@ -10198,21 +10199,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
         <v>34</v>
       </c>
-      <c r="C150" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" t="s">
-        <v>36</v>
-      </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150">
         <v>0.33</v>
@@ -10260,21 +10261,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
         <v>34</v>
       </c>
-      <c r="C151" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" t="s">
-        <v>36</v>
-      </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F151">
         <v>0.32</v>
@@ -10322,21 +10323,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
         <v>34</v>
       </c>
-      <c r="C152" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" t="s">
-        <v>36</v>
-      </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F152">
         <v>0.32</v>
@@ -10384,21 +10385,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
         <v>34</v>
       </c>
-      <c r="C153" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" t="s">
-        <v>36</v>
-      </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F153">
         <v>0.32</v>
@@ -10446,21 +10447,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
         <v>34</v>
       </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>36</v>
-      </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F154">
         <v>0.32</v>
@@ -10508,21 +10509,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
         <v>34</v>
       </c>
-      <c r="C155" t="s">
-        <v>29</v>
-      </c>
-      <c r="D155" t="s">
-        <v>36</v>
-      </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F155">
         <v>0.34</v>
@@ -10570,21 +10571,21 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B156" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s">
         <v>34</v>
       </c>
-      <c r="C156" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" t="s">
-        <v>36</v>
-      </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F156">
         <v>0.33</v>
@@ -10632,21 +10633,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" t="s">
         <v>34</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>31</v>
-      </c>
-      <c r="D157" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" t="s">
-        <v>32</v>
       </c>
       <c r="F157">
         <v>0.34</v>

--- a/dev/example.xlsx
+++ b/dev/example.xlsx
@@ -8,31 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00ACA3D-99B3-1644-AF94-74181292C5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D42901-EF83-0647-9D1B-E9B32C357E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36520" yWindow="4880" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="41">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
   <si>
     <t>BRA</t>
   </si>
@@ -142,7 +142,19 @@
     <t>image</t>
   </si>
   <si>
-    <t>Pathway</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,19 +975,19 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1">
         <v>2005</v>
@@ -1025,19 +1037,19 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0.33</v>
@@ -1087,19 +1099,19 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0.34</v>
@@ -1149,19 +1161,19 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.34</v>
@@ -1211,19 +1223,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.32</v>
@@ -1273,19 +1285,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.33</v>
@@ -1335,19 +1347,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.31</v>
@@ -1397,19 +1409,19 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.32</v>
@@ -1459,19 +1471,19 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.34</v>
@@ -1521,19 +1533,19 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.34</v>
@@ -1583,19 +1595,19 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.32</v>
@@ -1645,19 +1657,19 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0.33</v>
@@ -1707,19 +1719,19 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0.33</v>
@@ -1769,19 +1781,19 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.34</v>
@@ -1831,19 +1843,19 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0.33</v>
@@ -1893,19 +1905,19 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.33</v>
@@ -1955,19 +1967,19 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.33</v>
@@ -2017,19 +2029,19 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.32</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.32</v>
@@ -2141,19 +2153,19 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.33</v>
@@ -2203,19 +2215,19 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.32</v>
@@ -2265,19 +2277,19 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0.32</v>
@@ -2327,19 +2339,19 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.32</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0.32</v>
@@ -2451,19 +2463,19 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0.34</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0.33</v>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0.34</v>
@@ -2637,19 +2649,19 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0.33</v>
@@ -2699,19 +2711,19 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0.34</v>
@@ -2761,19 +2773,19 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0.34</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0.32</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0.33</v>
@@ -2947,19 +2959,19 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0.31</v>
@@ -3009,19 +3021,19 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0.32</v>
@@ -3071,19 +3083,19 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0.34</v>
@@ -3133,19 +3145,19 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0.34</v>
@@ -3195,19 +3207,19 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0.32</v>
@@ -3257,19 +3269,19 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0.33</v>
@@ -3319,19 +3331,19 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0.33</v>
@@ -3381,19 +3393,19 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0.34</v>
@@ -3443,19 +3455,19 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0.33</v>
@@ -3505,19 +3517,19 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0.33</v>
@@ -3567,19 +3579,19 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0.33</v>
@@ -3629,19 +3641,19 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0.32</v>
@@ -3691,19 +3703,19 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0.32</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0.33</v>
@@ -3815,19 +3827,19 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0.32</v>
@@ -3877,19 +3889,19 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0.32</v>
@@ -3939,19 +3951,19 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0.32</v>
@@ -4001,19 +4013,19 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0.32</v>
@@ -4063,19 +4075,19 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0.34</v>
@@ -4125,19 +4137,19 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0.33</v>
@@ -4187,19 +4199,19 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0.34</v>
@@ -4249,19 +4261,19 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0.33</v>
@@ -4311,19 +4323,19 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0.34</v>
@@ -4373,19 +4385,19 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0.34</v>
@@ -4435,19 +4447,19 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0.32</v>
@@ -4497,19 +4509,19 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0.33</v>
@@ -4559,19 +4571,19 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0.31</v>
@@ -4621,19 +4633,19 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0.32</v>
@@ -4683,19 +4695,19 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0.34</v>
@@ -4745,19 +4757,19 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0.34</v>
@@ -4807,19 +4819,19 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0.32</v>
@@ -4869,19 +4881,19 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0.33</v>
@@ -4931,19 +4943,19 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0.33</v>
@@ -4993,19 +5005,19 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0.34</v>
@@ -5055,19 +5067,19 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0.33</v>
@@ -5117,19 +5129,19 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0.33</v>
@@ -5179,19 +5191,19 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0.33</v>
@@ -5241,19 +5253,19 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0.32</v>
@@ -5303,19 +5315,19 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>0.32</v>
@@ -5365,19 +5377,19 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0.33</v>
@@ -5427,19 +5439,19 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0.32</v>
@@ -5489,19 +5501,19 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0.32</v>
@@ -5551,19 +5563,19 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0.32</v>
@@ -5613,19 +5625,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0.32</v>
@@ -5675,19 +5687,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0.34</v>
@@ -5737,19 +5749,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0.33</v>
@@ -5799,19 +5811,19 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0.34</v>
@@ -5861,19 +5873,19 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F80">
         <v>0.34</v>
@@ -5923,19 +5935,19 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F81">
         <v>0.35</v>
@@ -5985,19 +5997,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F82">
         <v>0.35</v>
@@ -6047,19 +6059,19 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F83">
         <v>0.33</v>
@@ -6109,19 +6121,19 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F84">
         <v>0.34</v>
@@ -6171,19 +6183,19 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F85">
         <v>0.32</v>
@@ -6233,19 +6245,19 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F86">
         <v>0.33</v>
@@ -6295,19 +6307,19 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F87">
         <v>0.35</v>
@@ -6357,19 +6369,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F88">
         <v>0.35</v>
@@ -6419,19 +6431,19 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F89">
         <v>0.33</v>
@@ -6481,19 +6493,19 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F90">
         <v>0.34</v>
@@ -6543,19 +6555,19 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F91">
         <v>0.34</v>
@@ -6605,19 +6617,19 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F92">
         <v>0.35</v>
@@ -6667,19 +6679,19 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F93">
         <v>0.34</v>
@@ -6729,19 +6741,19 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F94">
         <v>0.34</v>
@@ -6791,19 +6803,19 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F95">
         <v>0.34</v>
@@ -6853,19 +6865,19 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F96">
         <v>0.33</v>
@@ -6915,19 +6927,19 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F97">
         <v>0.33</v>
@@ -6977,19 +6989,19 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F98">
         <v>0.34</v>
@@ -7039,19 +7051,19 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F99">
         <v>0.33</v>
@@ -7101,19 +7113,19 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F100">
         <v>0.33</v>
@@ -7163,19 +7175,19 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F101">
         <v>0.33</v>
@@ -7225,19 +7237,19 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
         <v>27</v>
-      </c>
-      <c r="D102" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" t="s">
-        <v>31</v>
       </c>
       <c r="F102">
         <v>0.33</v>
@@ -7287,19 +7299,19 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F103">
         <v>0.35</v>
@@ -7349,19 +7361,19 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F104">
         <v>0.34</v>
@@ -7411,19 +7423,19 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F105">
         <v>0.35</v>
@@ -7473,19 +7485,19 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F106">
         <v>0.32</v>
@@ -7535,19 +7547,19 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F107">
         <v>0.24</v>
@@ -7597,19 +7609,19 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F108">
         <v>0.24</v>
@@ -7659,19 +7671,19 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F109">
         <v>0.32</v>
@@ -7721,19 +7733,19 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F110">
         <v>0.32</v>
@@ -7783,19 +7795,19 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F111">
         <v>0.31</v>
@@ -7845,19 +7857,19 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F112">
         <v>0.32</v>
@@ -7907,19 +7919,19 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F113">
         <v>0.33</v>
@@ -7969,19 +7981,19 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F114">
         <v>0.24</v>
@@ -8031,19 +8043,19 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F115">
         <v>0.32</v>
@@ -8093,19 +8105,19 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F116">
         <v>0.32</v>
@@ -8155,19 +8167,19 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F117">
         <v>0.32</v>
@@ -8217,19 +8229,19 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F118">
         <v>0.33</v>
@@ -8279,19 +8291,19 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F119">
         <v>0.32</v>
@@ -8341,19 +8353,19 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F120">
         <v>0.32</v>
@@ -8403,19 +8415,19 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F121">
         <v>0.32</v>
@@ -8465,19 +8477,19 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F122">
         <v>0.32</v>
@@ -8527,19 +8539,19 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F123">
         <v>0.12</v>
@@ -8589,19 +8601,19 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F124">
         <v>0.32</v>
@@ -8651,19 +8663,19 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F125">
         <v>0.32</v>
@@ -8713,19 +8725,19 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F126">
         <v>0.32</v>
@@ -8775,19 +8787,19 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F127">
         <v>0.32</v>
@@ -8837,19 +8849,19 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" t="s">
         <v>27</v>
-      </c>
-      <c r="D128" t="s">
-        <v>33</v>
-      </c>
-      <c r="E128" t="s">
-        <v>31</v>
       </c>
       <c r="F128">
         <v>0.32</v>
@@ -8899,19 +8911,19 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F129">
         <v>0.44</v>
@@ -8961,19 +8973,19 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
         <v>29</v>
       </c>
-      <c r="D130" t="s">
-        <v>33</v>
-      </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F130">
         <v>0.32</v>
@@ -9023,19 +9035,19 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F131">
         <v>0.24</v>
@@ -9085,19 +9097,19 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F132">
         <v>0.33</v>
@@ -9147,19 +9159,19 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F133">
         <v>0.34</v>
@@ -9209,19 +9221,19 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F134">
         <v>0.34</v>
@@ -9271,19 +9283,19 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F135">
         <v>0.32</v>
@@ -9333,19 +9345,19 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F136">
         <v>0.33</v>
@@ -9395,19 +9407,19 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F137">
         <v>0.31</v>
@@ -9457,19 +9469,19 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F138">
         <v>0.32</v>
@@ -9519,19 +9531,19 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F139">
         <v>0.34</v>
@@ -9581,19 +9593,19 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F140">
         <v>0.34</v>
@@ -9643,19 +9655,19 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F141">
         <v>0.32</v>
@@ -9705,19 +9717,19 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F142">
         <v>0.33</v>
@@ -9767,19 +9779,19 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F143">
         <v>0.33</v>
@@ -9829,19 +9841,19 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F144">
         <v>0.34</v>
@@ -9891,19 +9903,19 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F145">
         <v>0.33</v>
@@ -9953,19 +9965,19 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F146">
         <v>0.33</v>
@@ -10015,19 +10027,19 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F147">
         <v>0.33</v>
@@ -10077,19 +10089,19 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F148">
         <v>0.32</v>
@@ -10139,19 +10151,19 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F149">
         <v>0.32</v>
@@ -10201,19 +10213,19 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F150">
         <v>0.33</v>
@@ -10263,19 +10275,19 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F151">
         <v>0.32</v>
@@ -10325,19 +10337,19 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F152">
         <v>0.32</v>
@@ -10387,19 +10399,19 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F153">
         <v>0.32</v>
@@ -10449,19 +10461,19 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
         <v>27</v>
-      </c>
-      <c r="D154" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" t="s">
-        <v>31</v>
       </c>
       <c r="F154">
         <v>0.32</v>
@@ -10511,19 +10523,19 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F155">
         <v>0.34</v>
@@ -10573,19 +10585,19 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F156">
         <v>0.33</v>
@@ -10635,19 +10647,19 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
         <v>30</v>
       </c>
-      <c r="D157" t="s">
-        <v>34</v>
-      </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F157">
         <v>0.34</v>
